--- a/tests/test1/d10/N, 1.0.xlsx
+++ b/tests/test1/d10/N, 1.0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003176000000024715</v>
+        <v>0.0003188000000022839</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003077000000075714</v>
+        <v>0.0003043999999903235</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0002953000000047723</v>
+        <v>0.0006093000000078064</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002842999999899121</v>
+        <v>0.0005122999999969124</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003135999999983596</v>
+        <v>0.0003264999999998963</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003201000000103704</v>
+        <v>0.0003145000000017717</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.000286699999989537</v>
+        <v>0.000336899999993534</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.000340999999991709</v>
+        <v>0.0005742999999966969</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002982000000031348</v>
+        <v>0.0003394999999954962</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003227999999921849</v>
+        <v>0.0003420999999974583</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0006320999999900323</v>
+        <v>0.0003315999999955466</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.000346800000002645</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003057999999924732</v>
+        <v>0.000336899999993534</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003030000000023847</v>
+        <v>0.0003068000000041593</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.000332100000008495</v>
+        <v>0.0004682000000002517</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003335999999904971</v>
+        <v>0.001054800000005685</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003257999999988215</v>
+        <v>0.0003255999999964843</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003358000000019956</v>
+        <v>0.0003296000000005961</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003499000000033448</v>
+        <v>0.000324599999999009</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003324999999989586</v>
+        <v>0.0003396999999978334</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003118000000057464</v>
+        <v>0.000317199999997797</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003250000000036835</v>
+        <v>0.0003196999999914851</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003273000000092452</v>
+        <v>0.0003032000000047219</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003054000000020096</v>
+        <v>0.0002908000000019229</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003298999999969965</v>
+        <v>0.0003135000000042965</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0005973000000096818</v>
+        <v>0.0002806999999904747</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0005111999999911632</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003324000000048954</v>
+        <v>0.0003174000000001342</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.000286799999997811</v>
+        <v>0.0004093000000011671</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.000277699999998049</v>
+        <v>0.0002921999999898617</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.002017899999998463</v>
+        <v>0.0003172000000120079</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002888000000069724</v>
+        <v>0.0002904000000114593</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.00140330000000688</v>
+        <v>0.0003532000000063817</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003092999999978474</v>
+        <v>0.0003030000000023847</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003005000000086966</v>
+        <v>0.0003011999999955606</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.000736199999991527</v>
+        <v>0.0008304999999921847</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003303999999957341</v>
+        <v>0.0003102000000012595</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003017000000085091</v>
+        <v>0.000300699999996823</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003066999999958853</v>
+        <v>0.0002888000000069724</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003274999999973716</v>
+        <v>0.0003299000000112073</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.000292600000008747</v>
+        <v>0.0003013000000038346</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002992999999946733</v>
+        <v>0.0002958999999975731</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.000324599999999009</v>
+        <v>0.00034270000000447</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002855000000039354</v>
+        <v>0.0002970000000033224</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002990999999923361</v>
+        <v>0.0002877000000012231</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0004331000000092899</v>
+        <v>0.000289199999997436</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0003183999999976095</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.000304799999994998</v>
+        <v>0.0002970999999973856</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.000294199999999023</v>
+        <v>0.0002944999999954234</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003160999999920477</v>
+        <v>0.0003176999999965346</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003153999999909729</v>
+        <v>0.0002992000000006101</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002897000000103844</v>
+        <v>0.0002942000000132339</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.0003326000000072327</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003138000000006969</v>
+        <v>0.0003258000000130323</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002978999999925236</v>
+        <v>0.0002913000000006605</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0006125999999966325</v>
+        <v>0.0004939999999891143</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003158999999897105</v>
+        <v>0.0003285000000090577</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003081999999920981</v>
+        <v>0.0003020999999989726</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002881999999999607</v>
+        <v>0.0002977999999984604</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003254000000083579</v>
+        <v>0.0003317999999978838</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002989000000042097</v>
+        <v>0.0002886000000046351</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0004132000000112157</v>
+        <v>0.0002990999999923361</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0003241000000002714</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003037999999975227</v>
+        <v>0.000298299999997198</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002951000000024351</v>
+        <v>0.0003113000000070087</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0006393000000031179</v>
+        <v>0.0003749000000112801</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0003126000000008844</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002898999999985108</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003055000000102837</v>
+        <v>0.0002956000000011727</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003284999999948468</v>
+        <v>0.0003143999999934977</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003017000000085091</v>
+        <v>0.000397000000006642</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002979000000067344</v>
+        <v>0.0002920000000017353</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003300000000052705</v>
+        <v>0.0003258000000130323</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003001000000040221</v>
+        <v>0.0004749000000003889</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002997999999934109</v>
+        <v>0.0003042000000021972</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003616999999991322</v>
+        <v>0.0007653000000118482</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0003003000000063594</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.000307400000011171</v>
+        <v>0.0003265999999939595</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003286000000031208</v>
+        <v>0.0002953999999988355</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003144000000077085</v>
+        <v>0.0003126000000008844</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003143999999934977</v>
+        <v>0.0003017000000085091</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003192000000069584</v>
+        <v>0.0003004000000004226</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003255000000024211</v>
+        <v>0.0003260000000011587</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003039999999998599</v>
+        <v>0.0003032999999987851</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003063000000054217</v>
+        <v>0.0002953000000047723</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0003408000000035827</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002839999999935117</v>
+        <v>0.0002951999999964983</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002859999999884622</v>
+        <v>0.0002905000000055225</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0005754999999965094</v>
+        <v>0.0002883999999880871</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003072000000088337</v>
+        <v>0.0003212000000019088</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003152000000028465</v>
+        <v>0.0002955000000071095</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002906999999936488</v>
+        <v>0.0003002000000122962</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.0003150000000005093</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003068000000041593</v>
+        <v>0.0002915000000029977</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.000292600000008747</v>
+        <v>0.0002958000000035099</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003233999999991966</v>
+        <v>0.0008195000000057462</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002889000000010356</v>
+        <v>0.000301600000000235</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002966999999927111</v>
+        <v>0.0002882999999940239</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0006094999999959327</v>
+        <v>0.0002871000000084223</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d10/N, 1.0.xlsx
+++ b/tests/test1/d10/N, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003188000000022839</v>
+        <v>0.0003332999999940967</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003043999999903235</v>
+        <v>0.000313099999999622</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0006093000000078064</v>
+        <v>0.0003267999999820859</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0005122999999969124</v>
+        <v>0.0003327000000012958</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003264999999998963</v>
+        <v>0.0004542000000071766</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003145000000017717</v>
+        <v>0.0005050000000039745</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.000336899999993534</v>
+        <v>0.0003946999999868694</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0005742999999966969</v>
+        <v>0.0004905000000121618</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003394999999954962</v>
+        <v>0.001056400000010171</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003420999999974583</v>
+        <v>0.0003462999999896965</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003315999999955466</v>
+        <v>0.0003453999999862845</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.000346800000002645</v>
+        <v>0.0005253999999865755</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.000336899999993534</v>
+        <v>0.0005094999999926131</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003068000000041593</v>
+        <v>0.0004801999999983764</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0004682000000002517</v>
+        <v>0.0003174999999941974</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.001054800000005685</v>
+        <v>0.0004694000000142751</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003255999999964843</v>
+        <v>0.0005199999999945248</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003296000000005961</v>
+        <v>0.0005749000000037086</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.000324599999999009</v>
+        <v>0.0003511000000173681</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003396999999978334</v>
+        <v>0.0003317999999978838</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.000317199999997797</v>
+        <v>0.0003323999999906846</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003196999999914851</v>
+        <v>0.0003336999999987711</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003032000000047219</v>
+        <v>0.0003083000000003722</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002908000000019229</v>
+        <v>0.000300900000013371</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003135000000042965</v>
+        <v>0.0003383000000098946</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002806999999904747</v>
+        <v>0.0002853000000015982</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0003048000000092088</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003174000000001342</v>
+        <v>0.0003221999999993841</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0004093000000011671</v>
+        <v>0.000285899999994399</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002921999999898617</v>
+        <v>0.0003068000000041593</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003172000000120079</v>
+        <v>0.0003277000000139196</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0002929000000051474</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002904000000114593</v>
+        <v>0.0003447999999934837</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003532000000063817</v>
+        <v>0.0003368000000136817</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003030000000023847</v>
+        <v>0.0003103999999893858</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003011999999955606</v>
+        <v>0.000294099999990749</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0008304999999921847</v>
+        <v>0.0009395000000154141</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003102000000012595</v>
+        <v>0.0003078000000016345</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.000300699999996823</v>
+        <v>0.0003105000000118707</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002888000000069724</v>
+        <v>0.0002838000000053853</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003299000000112073</v>
+        <v>0.0003150000000005093</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003013000000038346</v>
+        <v>0.0002904999999771007</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002958999999975731</v>
+        <v>0.0003023999999811622</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.00034270000000447</v>
+        <v>0.0005337999999994736</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002970000000033224</v>
+        <v>0.0003080999999838241</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002877000000012231</v>
+        <v>0.0002954999999928987</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.000289199999997436</v>
+        <v>0.0002853999999956613</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.0003261999999892851</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002970999999973856</v>
+        <v>0.0003057999999782623</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002944999999954234</v>
+        <v>0.0003217000000006465</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003176999999965346</v>
+        <v>0.0003175999999882606</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0002950000000225828</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002942000000132339</v>
+        <v>0.0002987000000018725</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003326000000072327</v>
+        <v>0.0012465000000077</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003258000000130323</v>
+        <v>0.0003402000000107819</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002913000000006605</v>
+        <v>0.0003178999999988719</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0004939999999891143</v>
+        <v>0.0002924000000064098</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003285000000090577</v>
+        <v>0.0003299999999910597</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0003016999999942982</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0002877999999952863</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003317999999978838</v>
+        <v>0.0003214999999840984</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002886000000046351</v>
+        <v>0.0002858000000003358</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002990999999923361</v>
+        <v>0.0003050999999913984</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003241000000002714</v>
+        <v>0.0002953999999988355</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.000298299999997198</v>
+        <v>0.0003155999999933101</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003113000000070087</v>
+        <v>0.0003035000000011223</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003749000000112801</v>
+        <v>0.0002983999999912612</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.0003174999999941974</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0003169000000013966</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003143999999934977</v>
+        <v>0.0003384000000039578</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.000397000000006642</v>
+        <v>0.000321099999979424</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0003154999999992469</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003258000000130323</v>
+        <v>0.0008952999999962685</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0004749000000003889</v>
+        <v>0.0003276999999854979</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.000300699999996823</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0007653000000118482</v>
+        <v>0.0003140000000030341</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003003000000063594</v>
+        <v>0.0003374000000064825</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003265999999939595</v>
+        <v>0.000309100000009721</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002953999999988355</v>
+        <v>0.000314800000012383</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.0003111000000046715</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003017000000085091</v>
+        <v>0.0003106999999999971</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003004000000004226</v>
+        <v>0.0003236000000015338</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003260000000011587</v>
+        <v>0.0003044000000045344</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003032999999987851</v>
+        <v>0.0003183999999976095</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002953000000047723</v>
+        <v>0.000307500000019445</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003408000000035827</v>
+        <v>0.0003397000000120443</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002951999999964983</v>
+        <v>0.0003005000000086966</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002905000000055225</v>
+        <v>0.0002866000000096847</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002883999999880871</v>
+        <v>0.000311500000009346</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003212000000019088</v>
+        <v>0.0003156000000217318</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002955000000071095</v>
+        <v>0.0003096000000084587</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003002000000122962</v>
+        <v>0.0002945999999894866</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0003275999999914347</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002915000000029977</v>
+        <v>0.0004411000000175136</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0003169999999954598</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0008195000000057462</v>
+        <v>0.0008498999999915213</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.000301600000000235</v>
+        <v>0.0003313999999932093</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002882999999940239</v>
+        <v>0.0002972000000056596</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002871000000084223</v>
+        <v>0.000340999999991709</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d10/N, 1.0.xlsx
+++ b/tests/test1/d10/N, 1.0.xlsx
@@ -532,13 +532,13 @@
         <v>358.2359476540324</v>
       </c>
       <c r="F2" t="n">
-        <v>5.751374852661363</v>
+        <v>5.751374852660342</v>
       </c>
       <c r="G2" t="n">
-        <v>89.93319421858524</v>
+        <v>89.93319421858153</v>
       </c>
       <c r="H2" t="n">
-        <v>5.830371260096495</v>
+        <v>5.830371260094927</v>
       </c>
       <c r="I2" t="n">
         <v>70.56128143157282</v>
@@ -547,16 +547,16 @@
         <v>15.80711097780685</v>
       </c>
       <c r="K2" t="n">
-        <v>68.54247339265814</v>
+        <v>68.54247339265717</v>
       </c>
       <c r="L2" t="n">
-        <v>8.584872671920261</v>
+        <v>8.584872671918331</v>
       </c>
       <c r="M2" t="n">
-        <v>3.088231913892626</v>
+        <v>3.08823191389388</v>
       </c>
       <c r="N2" t="n">
-        <v>2.729060910378313</v>
+        <v>2.729060910379189</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003332999999940967</v>
+        <v>0.0002439999999985787</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>358.3756546363367</v>
       </c>
       <c r="F3" t="n">
-        <v>6.611203334239334</v>
+        <v>6.61120333423978</v>
       </c>
       <c r="G3" t="n">
-        <v>67.43674714156677</v>
+        <v>67.43674714156784</v>
       </c>
       <c r="H3" t="n">
-        <v>7.556793614387665</v>
+        <v>7.556793614388449</v>
       </c>
       <c r="I3" t="n">
         <v>53.17592866838513</v>
@@ -599,16 +599,16 @@
         <v>18.32782196423818</v>
       </c>
       <c r="K3" t="n">
-        <v>51.39255035826764</v>
+        <v>51.39255035826796</v>
       </c>
       <c r="L3" t="n">
-        <v>11.9741790795233</v>
+        <v>11.97417907952443</v>
       </c>
       <c r="M3" t="n">
-        <v>2.169603274892999</v>
+        <v>2.16960327489259</v>
       </c>
       <c r="N3" t="n">
-        <v>2.091822593941505</v>
+        <v>2.09182259394113</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.000313099999999622</v>
+        <v>0.0002437999999997942</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.4167578474054766</v>
       </c>
       <c r="F4" t="n">
-        <v>8.991373012144793</v>
+        <v>8.991373012144814</v>
       </c>
       <c r="G4" t="n">
-        <v>84.52044678921452</v>
+        <v>84.52044678921429</v>
       </c>
       <c r="H4" t="n">
-        <v>2.26952361939238</v>
+        <v>2.2695236193924</v>
       </c>
       <c r="I4" t="n">
         <v>31.7678424560353</v>
@@ -651,16 +651,16 @@
         <v>9.618122158119826</v>
       </c>
       <c r="K4" t="n">
-        <v>30.74698053412538</v>
+        <v>30.7469805341254</v>
       </c>
       <c r="L4" t="n">
-        <v>7.720010214910582</v>
+        <v>7.720010214910622</v>
       </c>
       <c r="M4" t="n">
-        <v>1.218183197757618</v>
+        <v>1.218183197757609</v>
       </c>
       <c r="N4" t="n">
-        <v>1.521597426466047</v>
+        <v>1.521597426466013</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003267999999820859</v>
+        <v>0.0002494999999989034</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>358.2113715265697</v>
       </c>
       <c r="F5" t="n">
-        <v>5.511451407330044</v>
+        <v>5.511451407327889</v>
       </c>
       <c r="G5" t="n">
-        <v>89.0201748598928</v>
+        <v>89.02017485988408</v>
       </c>
       <c r="H5" t="n">
-        <v>5.423051679851084</v>
+        <v>5.423051679847766</v>
       </c>
       <c r="I5" t="n">
         <v>70.66253786388728</v>
@@ -703,16 +703,16 @@
         <v>15.67687823027242</v>
       </c>
       <c r="K5" t="n">
-        <v>68.18785586887449</v>
+        <v>68.18785586887223</v>
       </c>
       <c r="L5" t="n">
-        <v>8.083888119372851</v>
+        <v>8.083888119368744</v>
       </c>
       <c r="M5" t="n">
-        <v>3.67530275088953</v>
+        <v>3.675302750892847</v>
       </c>
       <c r="N5" t="n">
-        <v>2.99984290015272</v>
+        <v>2.999842900154658</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003327000000012958</v>
+        <v>0.0001964000000000965</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9494382928571</v>
       </c>
       <c r="F6" t="n">
-        <v>9.013818865782056</v>
+        <v>9.013818865779198</v>
       </c>
       <c r="G6" t="n">
-        <v>175.1557595640844</v>
+        <v>175.1557595640882</v>
       </c>
       <c r="H6" t="n">
-        <v>8.331378270898028</v>
+        <v>8.331378270894477</v>
       </c>
       <c r="I6" t="n">
         <v>149.7044734839228</v>
@@ -755,16 +755,16 @@
         <v>4.673171010711503</v>
       </c>
       <c r="K6" t="n">
-        <v>150.6208932097537</v>
+        <v>150.6208932097568</v>
       </c>
       <c r="L6" t="n">
-        <v>4.090565225165955</v>
+        <v>4.090565225164296</v>
       </c>
       <c r="M6" t="n">
-        <v>1.122046926655801</v>
+        <v>1.122046926656826</v>
       </c>
       <c r="N6" t="n">
-        <v>0.786986472487772</v>
+        <v>0.7869864724901812</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0004542000000071766</v>
+        <v>0.0001851000000030467</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.5587725131149</v>
       </c>
       <c r="F7" t="n">
-        <v>7.520609622199299</v>
+        <v>7.520609622198778</v>
       </c>
       <c r="G7" t="n">
-        <v>36.14876845863655</v>
+        <v>36.14876845863526</v>
       </c>
       <c r="H7" t="n">
-        <v>9.692915913598906</v>
+        <v>9.692915913598215</v>
       </c>
       <c r="I7" t="n">
         <v>30.28257116656484</v>
@@ -807,16 +807,16 @@
         <v>22.87529985576693</v>
       </c>
       <c r="K7" t="n">
-        <v>29.15059379780963</v>
+        <v>29.15059379780928</v>
       </c>
       <c r="L7" t="n">
-        <v>16.36966270301046</v>
+        <v>16.36966270300921</v>
       </c>
       <c r="M7" t="n">
-        <v>1.420685839153022</v>
+        <v>1.420685839153214</v>
       </c>
       <c r="N7" t="n">
-        <v>1.550417609888557</v>
+        <v>1.550417609888895</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0005050000000039745</v>
+        <v>0.0002332999999978824</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.3117836734875126</v>
       </c>
       <c r="F8" t="n">
-        <v>7.76461911207909</v>
+        <v>7.764619112075789</v>
       </c>
       <c r="G8" t="n">
-        <v>166.4109929827197</v>
+        <v>166.4109929827295</v>
       </c>
       <c r="H8" t="n">
-        <v>4.701762283219998</v>
+        <v>4.701762283216694</v>
       </c>
       <c r="I8" t="n">
         <v>97.61618025069936</v>
@@ -859,16 +859,16 @@
         <v>3.973338297383755</v>
       </c>
       <c r="K8" t="n">
-        <v>97.54099324563084</v>
+        <v>97.54099324562922</v>
       </c>
       <c r="L8" t="n">
-        <v>2.560498079770823</v>
+        <v>2.560498079768904</v>
       </c>
       <c r="M8" t="n">
-        <v>1.144716161162838</v>
+        <v>1.144716161163867</v>
       </c>
       <c r="N8" t="n">
-        <v>1.570728289888965</v>
+        <v>1.570728289891597</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003946999999868694</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>358.3094742961997</v>
       </c>
       <c r="F9" t="n">
-        <v>6.653108992982413</v>
+        <v>6.653108992982231</v>
       </c>
       <c r="G9" t="n">
-        <v>10.34417543791708</v>
+        <v>10.34417543791666</v>
       </c>
       <c r="H9" t="n">
-        <v>11.34898756092574</v>
+        <v>11.34898756092533</v>
       </c>
       <c r="I9" t="n">
         <v>12.15137765332865</v>
@@ -911,16 +911,16 @@
         <v>22.28974380606835</v>
       </c>
       <c r="K9" t="n">
-        <v>11.09904244088415</v>
+        <v>11.09904244088397</v>
       </c>
       <c r="L9" t="n">
-        <v>17.76353954509978</v>
+        <v>17.76353954509911</v>
       </c>
       <c r="M9" t="n">
-        <v>1.64076497969143</v>
+        <v>1.640764979691545</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8906155173449755</v>
+        <v>0.890615517345162</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0004905000000121618</v>
+        <v>0.0002183000000002266</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9087952833802</v>
       </c>
       <c r="F10" t="n">
-        <v>7.955240061967944</v>
+        <v>7.955240061967313</v>
       </c>
       <c r="G10" t="n">
-        <v>157.9681971760542</v>
+        <v>157.9681971760545</v>
       </c>
       <c r="H10" t="n">
-        <v>11.04025532169402</v>
+        <v>11.04025532169292</v>
       </c>
       <c r="I10" t="n">
         <v>137.8318815863209</v>
@@ -963,16 +963,16 @@
         <v>11.86534188679525</v>
       </c>
       <c r="K10" t="n">
-        <v>138.5660133416296</v>
+        <v>138.5660133416299</v>
       </c>
       <c r="L10" t="n">
-        <v>9.259462266117325</v>
+        <v>9.259462266116531</v>
       </c>
       <c r="M10" t="n">
-        <v>1.504843093370026</v>
+        <v>1.50484309337038</v>
       </c>
       <c r="N10" t="n">
-        <v>1.18079340383268</v>
+        <v>1.180793403833066</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.001056400000010171</v>
+        <v>0.0001902000000022497</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9988914452878</v>
       </c>
       <c r="F11" t="n">
-        <v>9.174219354834936</v>
+        <v>9.174219354835142</v>
       </c>
       <c r="G11" t="n">
-        <v>358.1430307495216</v>
+        <v>358.1430307495218</v>
       </c>
       <c r="H11" t="n">
-        <v>6.368467779345615</v>
+        <v>6.368467779345544</v>
       </c>
       <c r="I11" t="n">
         <v>4.782971926670573</v>
@@ -1015,16 +1015,16 @@
         <v>18.26849864379155</v>
       </c>
       <c r="K11" t="n">
-        <v>3.718574045775047</v>
+        <v>3.718574045775136</v>
       </c>
       <c r="L11" t="n">
-        <v>14.22595548635849</v>
+        <v>14.22595548635861</v>
       </c>
       <c r="M11" t="n">
-        <v>1.262491893734898</v>
+        <v>1.26249189373487</v>
       </c>
       <c r="N11" t="n">
-        <v>1.463407318004339</v>
+        <v>1.46340731800432</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003462999999896965</v>
+        <v>0.0003099000000013064</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>358.6684134958705</v>
       </c>
       <c r="F12" t="n">
-        <v>9.354551093595699</v>
+        <v>9.354551093596005</v>
       </c>
       <c r="G12" t="n">
-        <v>124.5031088646736</v>
+        <v>124.5031088646725</v>
       </c>
       <c r="H12" t="n">
-        <v>2.972687973228552</v>
+        <v>2.972687973228758</v>
       </c>
       <c r="I12" t="n">
         <v>40.03006317522596</v>
@@ -1067,16 +1067,16 @@
         <v>5.809547132347129</v>
       </c>
       <c r="K12" t="n">
-        <v>39.54377147533761</v>
+        <v>39.543771475338</v>
       </c>
       <c r="L12" t="n">
-        <v>6.11434207176988</v>
+        <v>6.114342071770202</v>
       </c>
       <c r="M12" t="n">
-        <v>1.198356804981108</v>
+        <v>1.198356804981013</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7800085192132562</v>
+        <v>0.7800085192131179</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003453999999862845</v>
+        <v>0.000190199999998697</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>358.2505452586948</v>
       </c>
       <c r="F13" t="n">
-        <v>7.797933894698002</v>
+        <v>7.797933894697874</v>
       </c>
       <c r="G13" t="n">
-        <v>21.60528375277141</v>
+        <v>21.60528375277081</v>
       </c>
       <c r="H13" t="n">
-        <v>4.729925168934348</v>
+        <v>4.729925168934283</v>
       </c>
       <c r="I13" t="n">
         <v>16.97012183948808</v>
@@ -1119,16 +1119,16 @@
         <v>11.14346017967418</v>
       </c>
       <c r="K13" t="n">
-        <v>16.12335944823085</v>
+        <v>16.12335944823071</v>
       </c>
       <c r="L13" t="n">
-        <v>10.88314944500951</v>
+        <v>10.88314944500931</v>
       </c>
       <c r="M13" t="n">
-        <v>1.525374108745348</v>
+        <v>1.525374108745398</v>
       </c>
       <c r="N13" t="n">
-        <v>1.678446039733883</v>
+        <v>1.678446039733912</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0005253999999865755</v>
+        <v>0.0001892999999988376</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.52701416851</v>
       </c>
       <c r="F14" t="n">
-        <v>7.830829385884345</v>
+        <v>7.830829385884113</v>
       </c>
       <c r="G14" t="n">
-        <v>24.21772684570432</v>
+        <v>24.2177268457038</v>
       </c>
       <c r="H14" t="n">
-        <v>9.471774603892609</v>
+        <v>9.471774603892241</v>
       </c>
       <c r="I14" t="n">
         <v>21.32604566380087</v>
@@ -1171,16 +1171,16 @@
         <v>21.47093508922593</v>
       </c>
       <c r="K14" t="n">
-        <v>20.3162580487547</v>
+        <v>20.31625804875453</v>
       </c>
       <c r="L14" t="n">
-        <v>16.61355520647412</v>
+        <v>16.61355520647346</v>
       </c>
       <c r="M14" t="n">
-        <v>1.433529539370155</v>
+        <v>1.433529539370257</v>
       </c>
       <c r="N14" t="n">
-        <v>1.224668808142778</v>
+        <v>1.224668808142969</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005094999999926131</v>
+        <v>0.0002007000000006087</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.7123906620505903</v>
       </c>
       <c r="F15" t="n">
-        <v>8.095919141622064</v>
+        <v>8.095919141621607</v>
       </c>
       <c r="G15" t="n">
-        <v>146.4014271886632</v>
+        <v>146.4014271886637</v>
       </c>
       <c r="H15" t="n">
-        <v>3.997802008867105</v>
+        <v>3.997802008866691</v>
       </c>
       <c r="I15" t="n">
         <v>70.55697937574554</v>
@@ -1223,16 +1223,16 @@
         <v>6.028251123835125</v>
       </c>
       <c r="K15" t="n">
-        <v>69.30522296579464</v>
+        <v>69.30522296579396</v>
       </c>
       <c r="L15" t="n">
-        <v>4.196614259935871</v>
+        <v>4.19661425993555</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11583774623583</v>
+        <v>1.115837746235996</v>
       </c>
       <c r="N15" t="n">
-        <v>1.771399588565556</v>
+        <v>1.771399588566005</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0004801999999983764</v>
+        <v>0.0001882999999978097</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>358.448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>5.695918688638824</v>
+        <v>5.695918688638339</v>
       </c>
       <c r="G16" t="n">
-        <v>83.0702491051574</v>
+        <v>83.07024910515554</v>
       </c>
       <c r="H16" t="n">
-        <v>6.269012930611728</v>
+        <v>6.269012930610951</v>
       </c>
       <c r="I16" t="n">
         <v>67.01959217131787</v>
@@ -1275,16 +1275,16 @@
         <v>17.25965100693092</v>
       </c>
       <c r="K16" t="n">
-        <v>64.83985392295786</v>
+        <v>64.83985392295737</v>
       </c>
       <c r="L16" t="n">
-        <v>9.373433791803965</v>
+        <v>9.373433791802963</v>
       </c>
       <c r="M16" t="n">
-        <v>3.044200713854859</v>
+        <v>3.044200713855441</v>
       </c>
       <c r="N16" t="n">
-        <v>2.765975920947977</v>
+        <v>2.765975920948392</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003174999999941974</v>
+        <v>0.000349500000002223</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.3123284815435487</v>
       </c>
       <c r="F17" t="n">
-        <v>8.630620699581293</v>
+        <v>8.63062069958222</v>
       </c>
       <c r="G17" t="n">
-        <v>158.2676150851639</v>
+        <v>158.2676150851613</v>
       </c>
       <c r="H17" t="n">
-        <v>4.033162289882379</v>
+        <v>4.033162289883134</v>
       </c>
       <c r="I17" t="n">
         <v>64.66687573308144</v>
@@ -1327,16 +1327,16 @@
         <v>4.419793767587765</v>
       </c>
       <c r="K17" t="n">
-        <v>63.2287826924723</v>
+        <v>63.22878269247396</v>
       </c>
       <c r="L17" t="n">
-        <v>3.370855187518617</v>
+        <v>3.370855187519182</v>
       </c>
       <c r="M17" t="n">
-        <v>1.210955117232593</v>
+        <v>1.210955117232185</v>
       </c>
       <c r="N17" t="n">
-        <v>1.432998155985516</v>
+        <v>1.432998155984457</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0004694000000142751</v>
+        <v>0.0002338999999977887</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>8.175094976305038</v>
+        <v>8.175094976305024</v>
       </c>
       <c r="G18" t="n">
-        <v>36.75834021270019</v>
+        <v>36.75834021270013</v>
       </c>
       <c r="H18" t="n">
-        <v>7.077936820298858</v>
+        <v>7.077936820298847</v>
       </c>
       <c r="I18" t="n">
         <v>27.73953336539376</v>
@@ -1379,16 +1379,16 @@
         <v>17.9514684390679</v>
       </c>
       <c r="K18" t="n">
-        <v>26.76251118917023</v>
+        <v>26.76251118917022</v>
       </c>
       <c r="L18" t="n">
-        <v>13.84668948220727</v>
+        <v>13.84668948220724</v>
       </c>
       <c r="M18" t="n">
-        <v>1.039714805992446</v>
+        <v>1.039714805992449</v>
       </c>
       <c r="N18" t="n">
-        <v>1.304015534592589</v>
+        <v>1.304015534592604</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0005199999999945248</v>
+        <v>0.0001882999999978097</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.7237341099787</v>
       </c>
       <c r="F19" t="n">
-        <v>7.828197316290855</v>
+        <v>7.828197316290734</v>
       </c>
       <c r="G19" t="n">
-        <v>48.33003428823958</v>
+        <v>48.33003428823915</v>
       </c>
       <c r="H19" t="n">
-        <v>6.976160545687951</v>
+        <v>6.976160545687845</v>
       </c>
       <c r="I19" t="n">
         <v>35.67338189562808</v>
@@ -1431,16 +1431,16 @@
         <v>17.4087621630154</v>
       </c>
       <c r="K19" t="n">
-        <v>34.42391167830399</v>
+        <v>34.42391167830388</v>
       </c>
       <c r="L19" t="n">
-        <v>13.06541789319317</v>
+        <v>13.06541789319296</v>
       </c>
       <c r="M19" t="n">
-        <v>1.355735164003589</v>
+        <v>1.355735164003625</v>
       </c>
       <c r="N19" t="n">
-        <v>1.484038822668039</v>
+        <v>1.484038822668119</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005749000000037086</v>
+        <v>0.0002321999999992386</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9205715561937</v>
       </c>
       <c r="F20" t="n">
-        <v>6.756137679015723</v>
+        <v>6.756137679015119</v>
       </c>
       <c r="G20" t="n">
-        <v>114.7802491851302</v>
+        <v>114.780249185129</v>
       </c>
       <c r="H20" t="n">
-        <v>4.965125797641903</v>
+        <v>4.965125797641157</v>
       </c>
       <c r="I20" t="n">
         <v>77.36702495454749</v>
@@ -1483,16 +1483,16 @@
         <v>11.12685015605182</v>
       </c>
       <c r="K20" t="n">
-        <v>75.9652474999349</v>
+        <v>75.96524749993435</v>
       </c>
       <c r="L20" t="n">
-        <v>6.772800799195397</v>
+        <v>6.772800799194629</v>
       </c>
       <c r="M20" t="n">
-        <v>1.618769196634393</v>
+        <v>1.618769196634712</v>
       </c>
       <c r="N20" t="n">
-        <v>2.190560198383872</v>
+        <v>2.190560198384356</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003511000000173681</v>
+        <v>0.000187400000001503</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.7789967373178</v>
       </c>
       <c r="F21" t="n">
-        <v>7.928135402181777</v>
+        <v>7.928135402181798</v>
       </c>
       <c r="G21" t="n">
-        <v>14.32179546586948</v>
+        <v>14.32179546586954</v>
       </c>
       <c r="H21" t="n">
-        <v>9.240775329567883</v>
+        <v>9.240775329568025</v>
       </c>
       <c r="I21" t="n">
         <v>14.65846372863805</v>
@@ -1535,16 +1535,16 @@
         <v>21.98288036784542</v>
       </c>
       <c r="K21" t="n">
-        <v>13.59513162747141</v>
+        <v>13.59513162747145</v>
       </c>
       <c r="L21" t="n">
-        <v>16.51886162702798</v>
+        <v>16.51886162702817</v>
       </c>
       <c r="M21" t="n">
-        <v>1.305038651647242</v>
+        <v>1.305038651647214</v>
       </c>
       <c r="N21" t="n">
-        <v>1.357207589519014</v>
+        <v>1.357207589518954</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003317999999978838</v>
+        <v>0.0002233000000018137</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.1161068873827</v>
       </c>
       <c r="F22" t="n">
-        <v>4.723596803535332</v>
+        <v>4.723596803535123</v>
       </c>
       <c r="G22" t="n">
-        <v>96.23337495114821</v>
+        <v>96.23337495114704</v>
       </c>
       <c r="H22" t="n">
-        <v>4.942084937303549</v>
+        <v>4.942084937303209</v>
       </c>
       <c r="I22" t="n">
         <v>80.46804950751098</v>
@@ -1587,16 +1587,16 @@
         <v>17.3070565800005</v>
       </c>
       <c r="K22" t="n">
-        <v>78.18564817699549</v>
+        <v>78.18564817699523</v>
       </c>
       <c r="L22" t="n">
-        <v>7.144372394668889</v>
+        <v>7.144372394668497</v>
       </c>
       <c r="M22" t="n">
-        <v>3.275678085287233</v>
+        <v>3.275678085287549</v>
       </c>
       <c r="N22" t="n">
-        <v>3.392930647587043</v>
+        <v>3.392930647587243</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003323999999906846</v>
+        <v>0.0001824999999975319</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.05196424950553487</v>
       </c>
       <c r="F23" t="n">
-        <v>9.326548868184975</v>
+        <v>9.326548868185018</v>
       </c>
       <c r="G23" t="n">
-        <v>6.106466251709311</v>
+        <v>6.106466251709362</v>
       </c>
       <c r="H23" t="n">
-        <v>4.987617895478578</v>
+        <v>4.987617895478526</v>
       </c>
       <c r="I23" t="n">
         <v>8.886792062587165</v>
@@ -1642,13 +1642,13 @@
         <v>8.160361398928211</v>
       </c>
       <c r="L23" t="n">
-        <v>12.79087587127529</v>
+        <v>12.79087587127527</v>
       </c>
       <c r="M23" t="n">
-        <v>1.190816802655205</v>
+        <v>1.190816802655204</v>
       </c>
       <c r="N23" t="n">
-        <v>1.088540513841828</v>
+        <v>1.088540513841849</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003336999999987711</v>
+        <v>0.0001872999999967817</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.09194991986519468</v>
       </c>
       <c r="F24" t="n">
-        <v>8.411828122162332</v>
+        <v>8.411828122162877</v>
       </c>
       <c r="G24" t="n">
-        <v>34.97715875420286</v>
+        <v>34.97715875420465</v>
       </c>
       <c r="H24" t="n">
-        <v>6.279922313530368</v>
+        <v>6.279922313530817</v>
       </c>
       <c r="I24" t="n">
         <v>25.73745290239647</v>
@@ -1691,16 +1691,16 @@
         <v>17.47349577797121</v>
       </c>
       <c r="K24" t="n">
-        <v>24.69296695173538</v>
+        <v>24.69296695173581</v>
       </c>
       <c r="L24" t="n">
-        <v>13.17495595395633</v>
+        <v>13.17495595395731</v>
       </c>
       <c r="M24" t="n">
-        <v>1.413208811183957</v>
+        <v>1.413208811183776</v>
       </c>
       <c r="N24" t="n">
-        <v>1.446673049307607</v>
+        <v>1.446673049307234</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003083000000003722</v>
+        <v>0.0002358000000022287</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.3330119436465</v>
       </c>
       <c r="F25" t="n">
-        <v>5.427610253682852</v>
+        <v>5.427610253683942</v>
       </c>
       <c r="G25" t="n">
-        <v>85.3314362382291</v>
+        <v>85.33143623823302</v>
       </c>
       <c r="H25" t="n">
-        <v>6.534445743451255</v>
+        <v>6.534445743453198</v>
       </c>
       <c r="I25" t="n">
         <v>70.67112797219256</v>
@@ -1743,16 +1743,16 @@
         <v>19.47923218856673</v>
       </c>
       <c r="K25" t="n">
-        <v>68.86558886874457</v>
+        <v>68.86558886874549</v>
       </c>
       <c r="L25" t="n">
-        <v>9.566029210675296</v>
+        <v>9.566029210677758</v>
       </c>
       <c r="M25" t="n">
-        <v>2.277092587274636</v>
+        <v>2.277092587273479</v>
       </c>
       <c r="N25" t="n">
-        <v>2.856793827154284</v>
+        <v>2.85679382715341</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.000300900000013371</v>
+        <v>0.0001840000000008502</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>358.6707878273508</v>
       </c>
       <c r="F26" t="n">
-        <v>8.37063851445582</v>
+        <v>8.370638514455278</v>
       </c>
       <c r="G26" t="n">
-        <v>172.6278488318328</v>
+        <v>172.6278488318334</v>
       </c>
       <c r="H26" t="n">
-        <v>9.212489520304077</v>
+        <v>9.212489520303311</v>
       </c>
       <c r="I26" t="n">
         <v>154.9934456744326</v>
@@ -1795,16 +1795,16 @@
         <v>6.82101990562933</v>
       </c>
       <c r="K26" t="n">
-        <v>155.3206353366158</v>
+        <v>155.3206353366163</v>
       </c>
       <c r="L26" t="n">
-        <v>5.735464678074642</v>
+        <v>5.735464678074224</v>
       </c>
       <c r="M26" t="n">
-        <v>2.257970961107349</v>
+        <v>2.257970961107756</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8301055902927841</v>
+        <v>0.8301055902931673</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003383000000098946</v>
+        <v>0.0001853999999994471</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.7717269103339</v>
       </c>
       <c r="F27" t="n">
-        <v>6.945649623190661</v>
+        <v>6.945649623194284</v>
       </c>
       <c r="G27" t="n">
-        <v>158.9389215882997</v>
+        <v>158.9389215882944</v>
       </c>
       <c r="H27" t="n">
-        <v>5.960123506650439</v>
+        <v>5.960123506655237</v>
       </c>
       <c r="I27" t="n">
         <v>121.4009088187373</v>
@@ -1847,16 +1847,16 @@
         <v>6.942709063967283</v>
       </c>
       <c r="K27" t="n">
-        <v>122.2765861034788</v>
+        <v>122.2765861034769</v>
       </c>
       <c r="L27" t="n">
-        <v>4.391586500797179</v>
+        <v>4.391586500800243</v>
       </c>
       <c r="M27" t="n">
-        <v>1.70301785088658</v>
+        <v>1.703017850884625</v>
       </c>
       <c r="N27" t="n">
-        <v>1.897334037514748</v>
+        <v>1.897334037512211</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002853000000015982</v>
+        <v>0.0001932000000017808</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.80400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>8.008167774501626</v>
+        <v>8.008167774501924</v>
       </c>
       <c r="G28" t="n">
-        <v>51.76643880025394</v>
+        <v>51.76643880025416</v>
       </c>
       <c r="H28" t="n">
-        <v>6.853895658163307</v>
+        <v>6.853895658163885</v>
       </c>
       <c r="I28" t="n">
         <v>36.9783150738388</v>
@@ -1899,16 +1899,16 @@
         <v>17.11232764246076</v>
       </c>
       <c r="K28" t="n">
-        <v>35.95725640091106</v>
+        <v>35.95725640091125</v>
       </c>
       <c r="L28" t="n">
-        <v>12.94914235573822</v>
+        <v>12.94914235573912</v>
       </c>
       <c r="M28" t="n">
-        <v>1.293881776706416</v>
+        <v>1.293881776706239</v>
       </c>
       <c r="N28" t="n">
-        <v>1.396411545573289</v>
+        <v>1.39641154557299</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003048000000092088</v>
+        <v>0.0001949000000003309</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>358.7143945847677</v>
       </c>
       <c r="F29" t="n">
-        <v>6.298460175646841</v>
+        <v>6.298460175646049</v>
       </c>
       <c r="G29" t="n">
-        <v>69.3097601140159</v>
+        <v>69.30976011401316</v>
       </c>
       <c r="H29" t="n">
-        <v>7.549962441622323</v>
+        <v>7.549962441621126</v>
       </c>
       <c r="I29" t="n">
         <v>55.80674075854401</v>
@@ -1951,16 +1951,16 @@
         <v>19.44632462639266</v>
       </c>
       <c r="K29" t="n">
-        <v>54.09513208967392</v>
+        <v>54.09513208967321</v>
       </c>
       <c r="L29" t="n">
-        <v>11.73439880958992</v>
+        <v>11.7343988095882</v>
       </c>
       <c r="M29" t="n">
-        <v>2.217088009230875</v>
+        <v>2.21708800923146</v>
       </c>
       <c r="N29" t="n">
-        <v>2.294375620585325</v>
+        <v>2.294375620585946</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003221999999993841</v>
+        <v>0.0002302999999983513</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.55366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>6.167870414734482</v>
+        <v>6.16787041472935</v>
       </c>
       <c r="G30" t="n">
-        <v>129.5434983602878</v>
+        <v>129.5434983602848</v>
       </c>
       <c r="H30" t="n">
-        <v>4.717831310399417</v>
+        <v>4.717831310392532</v>
       </c>
       <c r="I30" t="n">
         <v>91.80924814573706</v>
@@ -2003,16 +2003,16 @@
         <v>9.961999912823932</v>
       </c>
       <c r="K30" t="n">
-        <v>90.55419986529743</v>
+        <v>90.55419986529438</v>
       </c>
       <c r="L30" t="n">
-        <v>5.488402239339802</v>
+        <v>5.488402239333651</v>
       </c>
       <c r="M30" t="n">
-        <v>1.939057208048478</v>
+        <v>1.939057208052225</v>
       </c>
       <c r="N30" t="n">
-        <v>2.392600346565692</v>
+        <v>2.392600346569331</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.000285899999994399</v>
+        <v>0.0001905000000022028</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.417482126304551</v>
       </c>
       <c r="F31" t="n">
-        <v>7.87766327848186</v>
+        <v>7.877663278479917</v>
       </c>
       <c r="G31" t="n">
-        <v>161.5345400046076</v>
+        <v>161.5345400046135</v>
       </c>
       <c r="H31" t="n">
-        <v>4.35274875054949</v>
+        <v>4.352748750547652</v>
       </c>
       <c r="I31" t="n">
         <v>85.08185965409687</v>
@@ -2055,16 +2055,16 @@
         <v>4.383667298314077</v>
       </c>
       <c r="K31" t="n">
-        <v>83.92569212219389</v>
+        <v>83.92569212219175</v>
       </c>
       <c r="L31" t="n">
-        <v>2.89851805665204</v>
+        <v>2.898518056650816</v>
       </c>
       <c r="M31" t="n">
-        <v>1.309403118461654</v>
+        <v>1.309403118462519</v>
       </c>
       <c r="N31" t="n">
-        <v>1.80984436222527</v>
+        <v>1.809844362227133</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003068000000041593</v>
+        <v>0.0001840000000008502</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>1.2640526647764</v>
       </c>
       <c r="F32" t="n">
-        <v>6.924675697556946</v>
+        <v>6.924675697557219</v>
       </c>
       <c r="G32" t="n">
-        <v>118.4182285557725</v>
+        <v>118.4182285557726</v>
       </c>
       <c r="H32" t="n">
-        <v>3.794684724757754</v>
+        <v>3.794684724758053</v>
       </c>
       <c r="I32" t="n">
         <v>69.94009040741105</v>
@@ -2107,16 +2107,16 @@
         <v>9.94082687493656</v>
       </c>
       <c r="K32" t="n">
-        <v>68.12171810317423</v>
+        <v>68.1217181031745</v>
       </c>
       <c r="L32" t="n">
-        <v>5.741637368013481</v>
+        <v>5.741637368013812</v>
       </c>
       <c r="M32" t="n">
-        <v>1.435937038120328</v>
+        <v>1.43593703812019</v>
       </c>
       <c r="N32" t="n">
-        <v>2.467066805171517</v>
+        <v>2.467066805171301</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003277000000139196</v>
+        <v>0.0001818000000000097</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.4147572142515962</v>
       </c>
       <c r="F33" t="n">
-        <v>6.883863976696849</v>
+        <v>6.883863976696088</v>
       </c>
       <c r="G33" t="n">
-        <v>46.17781220925571</v>
+        <v>46.17781220925371</v>
       </c>
       <c r="H33" t="n">
-        <v>8.887446085783671</v>
+        <v>8.887446085782344</v>
       </c>
       <c r="I33" t="n">
         <v>39.0616009844012</v>
@@ -2159,16 +2159,16 @@
         <v>23.45979414801152</v>
       </c>
       <c r="K33" t="n">
-        <v>37.41971082510214</v>
+        <v>37.41971082510154</v>
       </c>
       <c r="L33" t="n">
-        <v>14.67121770156533</v>
+        <v>14.6712177015632</v>
       </c>
       <c r="M33" t="n">
-        <v>1.565786850993498</v>
+        <v>1.565786850993937</v>
       </c>
       <c r="N33" t="n">
-        <v>2.135033773452794</v>
+        <v>2.135033773453372</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002929000000051474</v>
+        <v>0.001278900000002636</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.3488944509894297</v>
       </c>
       <c r="F34" t="n">
-        <v>7.128746478184523</v>
+        <v>7.128746478186785</v>
       </c>
       <c r="G34" t="n">
-        <v>160.5006663773039</v>
+        <v>160.5006663772976</v>
       </c>
       <c r="H34" t="n">
-        <v>4.340972102446377</v>
+        <v>4.340972102448787</v>
       </c>
       <c r="I34" t="n">
         <v>98.12939238316436</v>
@@ -2211,16 +2211,16 @@
         <v>5.067646835573846</v>
       </c>
       <c r="K34" t="n">
-        <v>97.67959631077495</v>
+        <v>97.67959631077623</v>
       </c>
       <c r="L34" t="n">
-        <v>2.979384320671412</v>
+        <v>2.979384320672956</v>
       </c>
       <c r="M34" t="n">
-        <v>1.312898913680912</v>
+        <v>1.312898913680028</v>
       </c>
       <c r="N34" t="n">
-        <v>1.994450291737435</v>
+        <v>1.994450291735644</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003447999999934837</v>
+        <v>0.0002278999999987263</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.3188535051081249</v>
       </c>
       <c r="F35" t="n">
-        <v>8.348769782193463</v>
+        <v>8.348769782193465</v>
       </c>
       <c r="G35" t="n">
-        <v>41.99164515680516</v>
+        <v>41.9916451568043</v>
       </c>
       <c r="H35" t="n">
-        <v>5.981255109811205</v>
+        <v>5.981255109811575</v>
       </c>
       <c r="I35" t="n">
         <v>29.60621371940404</v>
@@ -2266,13 +2266,13 @@
         <v>28.53991883659824</v>
       </c>
       <c r="L35" t="n">
-        <v>12.59772414339363</v>
+        <v>12.59772414339409</v>
       </c>
       <c r="M35" t="n">
-        <v>1.19177011883771</v>
+        <v>1.191770118837631</v>
       </c>
       <c r="N35" t="n">
-        <v>1.466418507882925</v>
+        <v>1.46641850788279</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003368000000136817</v>
+        <v>0.0001880000000014093</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.7561648993723</v>
       </c>
       <c r="F36" t="n">
-        <v>8.53000719904845</v>
+        <v>8.530007199048557</v>
       </c>
       <c r="G36" t="n">
-        <v>4.644140217086838</v>
+        <v>4.644140217087017</v>
       </c>
       <c r="H36" t="n">
-        <v>9.259653291935811</v>
+        <v>9.259653291935885</v>
       </c>
       <c r="I36" t="n">
         <v>7.633544320503938</v>
@@ -2315,16 +2315,16 @@
         <v>22.30604591386155</v>
       </c>
       <c r="K36" t="n">
-        <v>6.826754535158893</v>
+        <v>6.82675453515897</v>
       </c>
       <c r="L36" t="n">
-        <v>17.10997770422009</v>
+        <v>17.10997770422028</v>
       </c>
       <c r="M36" t="n">
-        <v>1.211821756228084</v>
+        <v>1.211821756228058</v>
       </c>
       <c r="N36" t="n">
-        <v>1.274637587201175</v>
+        <v>1.274637587201119</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003103999999893858</v>
+        <v>0.0001892000000012217</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>1.889736710087848</v>
       </c>
       <c r="F37" t="n">
-        <v>7.647977561093922</v>
+        <v>7.64797756109389</v>
       </c>
       <c r="G37" t="n">
-        <v>86.78879619145727</v>
+        <v>86.78879619145697</v>
       </c>
       <c r="H37" t="n">
-        <v>3.283201646736674</v>
+        <v>3.283201646736657</v>
       </c>
       <c r="I37" t="n">
         <v>47.28302978168723</v>
@@ -2367,16 +2367,16 @@
         <v>12.44155687331505</v>
       </c>
       <c r="K37" t="n">
-        <v>45.58435597827048</v>
+        <v>45.58435597827043</v>
       </c>
       <c r="L37" t="n">
-        <v>7.498878067409118</v>
+        <v>7.498878067409093</v>
       </c>
       <c r="M37" t="n">
-        <v>1.691340730408685</v>
+        <v>1.691340730408696</v>
       </c>
       <c r="N37" t="n">
-        <v>2.470221101014424</v>
+        <v>2.470221101014441</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.000294099999990749</v>
+        <v>0.0001852000000006626</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.3235867342455</v>
       </c>
       <c r="F38" t="n">
-        <v>5.183566584358601</v>
+        <v>5.183566584358307</v>
       </c>
       <c r="G38" t="n">
-        <v>128.1536763193785</v>
+        <v>128.1536763193781</v>
       </c>
       <c r="H38" t="n">
-        <v>3.687164067183147</v>
+        <v>3.687164067182741</v>
       </c>
       <c r="I38" t="n">
         <v>93.75460165970797</v>
@@ -2419,16 +2419,16 @@
         <v>10.42956719317792</v>
       </c>
       <c r="K38" t="n">
-        <v>92.07877060559032</v>
+        <v>92.07877060559012</v>
       </c>
       <c r="L38" t="n">
-        <v>4.591593030214296</v>
+        <v>4.591593030213936</v>
       </c>
       <c r="M38" t="n">
-        <v>3.106263661862487</v>
+        <v>3.106263661862912</v>
       </c>
       <c r="N38" t="n">
-        <v>3.024314996012155</v>
+        <v>3.024314996012372</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0009395000000154141</v>
+        <v>0.00022560000000027</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.05446361233749655</v>
       </c>
       <c r="F39" t="n">
-        <v>8.10736483316207</v>
+        <v>8.107364833159705</v>
       </c>
       <c r="G39" t="n">
-        <v>172.9536012864646</v>
+        <v>172.9536012864693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.36489576858991</v>
+        <v>6.364895768587173</v>
       </c>
       <c r="I39" t="n">
         <v>132.8794796020886</v>
@@ -2471,16 +2471,16 @@
         <v>4.031761962137695</v>
       </c>
       <c r="K39" t="n">
-        <v>134.6465794262089</v>
+        <v>134.6465794262116</v>
       </c>
       <c r="L39" t="n">
-        <v>2.972953224092002</v>
+        <v>2.972953224090695</v>
       </c>
       <c r="M39" t="n">
-        <v>1.221885033032976</v>
+        <v>1.221885033033839</v>
       </c>
       <c r="N39" t="n">
-        <v>1.596159594710488</v>
+        <v>1.59615959471262</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003078000000016345</v>
+        <v>0.0001916000000008466</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>358.9912943518833</v>
       </c>
       <c r="F40" t="n">
-        <v>6.583293562602997</v>
+        <v>6.583293562602349</v>
       </c>
       <c r="G40" t="n">
-        <v>63.05068641622819</v>
+        <v>63.05068641622636</v>
       </c>
       <c r="H40" t="n">
-        <v>8.238564553219579</v>
+        <v>8.238564553218492</v>
       </c>
       <c r="I40" t="n">
         <v>51.01422188754402</v>
@@ -2523,16 +2523,16 @@
         <v>20.73148308181667</v>
       </c>
       <c r="K40" t="n">
-        <v>49.43642709454402</v>
+        <v>49.43642709454351</v>
       </c>
       <c r="L40" t="n">
-        <v>12.98862797186918</v>
+        <v>12.98862797186758</v>
       </c>
       <c r="M40" t="n">
-        <v>1.99577888514061</v>
+        <v>1.995778885141079</v>
       </c>
       <c r="N40" t="n">
-        <v>2.125447910809617</v>
+        <v>2.125447910810124</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003105000000118707</v>
+        <v>0.000185099999999494</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>358.5951604339781</v>
       </c>
       <c r="F41" t="n">
-        <v>5.291327575469927</v>
+        <v>5.29132757547059</v>
       </c>
       <c r="G41" t="n">
-        <v>88.65257484892696</v>
+        <v>88.65257484892967</v>
       </c>
       <c r="H41" t="n">
-        <v>5.560019537883392</v>
+        <v>5.560019537884489</v>
       </c>
       <c r="I41" t="n">
         <v>72.19761816275663</v>
@@ -2575,16 +2575,16 @@
         <v>16.90630795593209</v>
       </c>
       <c r="K41" t="n">
-        <v>69.84448460157373</v>
+        <v>69.84448460157439</v>
       </c>
       <c r="L41" t="n">
-        <v>8.21392094472607</v>
+        <v>8.213920944727429</v>
       </c>
       <c r="M41" t="n">
-        <v>3.306359488680442</v>
+        <v>3.306359488679423</v>
       </c>
       <c r="N41" t="n">
-        <v>3.084497462853018</v>
+        <v>3.084497462852428</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002838000000053853</v>
+        <v>0.0001902999999998656</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.6075476972112318</v>
       </c>
       <c r="F42" t="n">
-        <v>8.955213895510871</v>
+        <v>8.95521389551077</v>
       </c>
       <c r="G42" t="n">
-        <v>76.40768519002788</v>
+        <v>76.4076851900281</v>
       </c>
       <c r="H42" t="n">
-        <v>2.492917379596913</v>
+        <v>2.492917379596825</v>
       </c>
       <c r="I42" t="n">
         <v>31.92625942098924</v>
@@ -2627,16 +2627,16 @@
         <v>10.18120494273455</v>
       </c>
       <c r="K42" t="n">
-        <v>30.6534036525088</v>
+        <v>30.6534036525087</v>
       </c>
       <c r="L42" t="n">
-        <v>8.185114881590737</v>
+        <v>8.185114881590566</v>
       </c>
       <c r="M42" t="n">
-        <v>1.160238999248357</v>
+        <v>1.160238999248396</v>
       </c>
       <c r="N42" t="n">
-        <v>1.519803789989993</v>
+        <v>1.519803789990108</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0001937999999981344</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.2707123230673222</v>
       </c>
       <c r="F43" t="n">
-        <v>9.01709467171133</v>
+        <v>9.017094671711263</v>
       </c>
       <c r="G43" t="n">
-        <v>44.0685468482496</v>
+        <v>44.06854684824889</v>
       </c>
       <c r="H43" t="n">
-        <v>2.439180677285654</v>
+        <v>2.439180677285655</v>
       </c>
       <c r="I43" t="n">
         <v>21.98281729864149</v>
@@ -2679,16 +2679,16 @@
         <v>11.20442922515501</v>
       </c>
       <c r="K43" t="n">
-        <v>20.90939953606487</v>
+        <v>20.90939953606481</v>
       </c>
       <c r="L43" t="n">
-        <v>9.103199872148235</v>
+        <v>9.103199872148188</v>
       </c>
       <c r="M43" t="n">
-        <v>1.137617516442096</v>
+        <v>1.137617516442109</v>
       </c>
       <c r="N43" t="n">
-        <v>1.392146298517554</v>
+        <v>1.392146298517599</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002904999999771007</v>
+        <v>0.000586699999999496</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.5032858469888</v>
       </c>
       <c r="F44" t="n">
-        <v>6.597852592823646</v>
+        <v>6.597852592823693</v>
       </c>
       <c r="G44" t="n">
-        <v>61.94168250517122</v>
+        <v>61.94168250517152</v>
       </c>
       <c r="H44" t="n">
-        <v>8.686566501137248</v>
+        <v>8.686566501137246</v>
       </c>
       <c r="I44" t="n">
         <v>50.70287428680181</v>
@@ -2731,16 +2731,16 @@
         <v>22.14193003827787</v>
       </c>
       <c r="K44" t="n">
-        <v>49.25342360230868</v>
+        <v>49.25342360230874</v>
       </c>
       <c r="L44" t="n">
-        <v>13.61134594138156</v>
+        <v>13.61134594138158</v>
       </c>
       <c r="M44" t="n">
-        <v>1.76542171546876</v>
+        <v>1.765421715468777</v>
       </c>
       <c r="N44" t="n">
-        <v>2.134177702449581</v>
+        <v>2.134177702449558</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003023999999811622</v>
+        <v>0.0002323000000004072</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.7426000746553</v>
       </c>
       <c r="F45" t="n">
-        <v>8.093902255174068</v>
+        <v>8.093902255174255</v>
       </c>
       <c r="G45" t="n">
-        <v>17.15188509815933</v>
+        <v>17.15188509815981</v>
       </c>
       <c r="H45" t="n">
-        <v>8.226911262537818</v>
+        <v>8.226911262538128</v>
       </c>
       <c r="I45" t="n">
         <v>16.3064939917049</v>
@@ -2783,16 +2783,16 @@
         <v>19.74929820405307</v>
       </c>
       <c r="K45" t="n">
-        <v>15.17975314506904</v>
+        <v>15.17975314506921</v>
       </c>
       <c r="L45" t="n">
-        <v>15.44975062437561</v>
+        <v>15.44975062437615</v>
       </c>
       <c r="M45" t="n">
-        <v>1.243691753483858</v>
+        <v>1.24369175348378</v>
       </c>
       <c r="N45" t="n">
-        <v>1.238358695112803</v>
+        <v>1.238358695112628</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0005337999999994736</v>
+        <v>0.000271200000000249</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.7506147172558701</v>
       </c>
       <c r="F46" t="n">
-        <v>8.833921451144086</v>
+        <v>8.833921451143906</v>
       </c>
       <c r="G46" t="n">
-        <v>160.9398438083392</v>
+        <v>160.9398438083396</v>
       </c>
       <c r="H46" t="n">
-        <v>3.496290895079125</v>
+        <v>3.496290895078988</v>
       </c>
       <c r="I46" t="n">
         <v>51.49320715697708</v>
@@ -2835,16 +2835,16 @@
         <v>4.733318900759217</v>
       </c>
       <c r="K46" t="n">
-        <v>49.7178709410553</v>
+        <v>49.71787094105484</v>
       </c>
       <c r="L46" t="n">
-        <v>3.481959850593942</v>
+        <v>3.481959850593856</v>
       </c>
       <c r="M46" t="n">
-        <v>1.315415580035004</v>
+        <v>1.315415580035111</v>
       </c>
       <c r="N46" t="n">
-        <v>1.598168157464166</v>
+        <v>1.598168157464402</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003080999999838241</v>
+        <v>0.000259700000000862</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9736252271504</v>
       </c>
       <c r="F47" t="n">
-        <v>9.240313616554376</v>
+        <v>9.240313616548063</v>
       </c>
       <c r="G47" t="n">
-        <v>178.9368738667189</v>
+        <v>178.9368738667274</v>
       </c>
       <c r="H47" t="n">
-        <v>8.66125259612957</v>
+        <v>8.661252596121766</v>
       </c>
       <c r="I47" t="n">
         <v>159.1796698056864</v>
@@ -2887,16 +2887,16 @@
         <v>4.410985878453859</v>
       </c>
       <c r="K47" t="n">
-        <v>160.1655035024542</v>
+        <v>160.1655035024625</v>
       </c>
       <c r="L47" t="n">
-        <v>4.005376139722907</v>
+        <v>4.005376139719485</v>
       </c>
       <c r="M47" t="n">
-        <v>1.067399200168508</v>
+        <v>1.067399200170777</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6657669945879263</v>
+        <v>0.6657669945935463</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002954999999928987</v>
+        <v>0.0002369000000008725</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.4151241601295</v>
       </c>
       <c r="F48" t="n">
-        <v>5.286847668414854</v>
+        <v>5.286847668422929</v>
       </c>
       <c r="G48" t="n">
-        <v>141.3285666920436</v>
+        <v>141.3285666920392</v>
       </c>
       <c r="H48" t="n">
-        <v>4.039646443652428</v>
+        <v>4.039646443663911</v>
       </c>
       <c r="I48" t="n">
         <v>105.4244541290951</v>
@@ -2939,16 +2939,16 @@
         <v>9.516228537064677</v>
       </c>
       <c r="K48" t="n">
-        <v>105.0478311233501</v>
+        <v>105.0478311233511</v>
       </c>
       <c r="L48" t="n">
-        <v>4.292710949191536</v>
+        <v>4.292710949200687</v>
       </c>
       <c r="M48" t="n">
-        <v>2.828779694043697</v>
+        <v>2.828779694033274</v>
       </c>
       <c r="N48" t="n">
-        <v>2.563836864107321</v>
+        <v>2.563836864102635</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002853999999956613</v>
+        <v>0.000195200000000284</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.8480094757661352</v>
       </c>
       <c r="F49" t="n">
-        <v>8.379317236384873</v>
+        <v>8.379317236384949</v>
       </c>
       <c r="G49" t="n">
-        <v>17.43013636899256</v>
+        <v>17.43013636899273</v>
       </c>
       <c r="H49" t="n">
-        <v>8.938652143408378</v>
+        <v>8.938652143408117</v>
       </c>
       <c r="I49" t="n">
         <v>17.03401812828383</v>
@@ -2991,16 +2991,16 @@
         <v>25.00422823336124</v>
       </c>
       <c r="K49" t="n">
-        <v>15.73728578110746</v>
+        <v>15.73728578110748</v>
       </c>
       <c r="L49" t="n">
-        <v>16.61884526463854</v>
+        <v>16.6188452646383</v>
       </c>
       <c r="M49" t="n">
-        <v>1.360836094566336</v>
+        <v>1.36083609456637</v>
       </c>
       <c r="N49" t="n">
-        <v>1.937238133602838</v>
+        <v>1.937238133602887</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003261999999892851</v>
+        <v>0.0002637000000014211</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.9936313199284542</v>
       </c>
       <c r="F50" t="n">
-        <v>9.484716784371681</v>
+        <v>9.484716784371711</v>
       </c>
       <c r="G50" t="n">
         <v>357.6099840401476</v>
       </c>
       <c r="H50" t="n">
-        <v>7.674424962967957</v>
+        <v>7.67442496296795</v>
       </c>
       <c r="I50" t="n">
         <v>4.979091423193565</v>
@@ -3043,13 +3043,13 @@
         <v>23.88762442334499</v>
       </c>
       <c r="K50" t="n">
-        <v>3.386711009954783</v>
+        <v>3.386711009954795</v>
       </c>
       <c r="L50" t="n">
-        <v>16.09633831389795</v>
+        <v>16.09633831389797</v>
       </c>
       <c r="M50" t="n">
-        <v>1.331127348135487</v>
+        <v>1.331127348135483</v>
       </c>
       <c r="N50" t="n">
         <v>2.179601505130966</v>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003057999999782623</v>
+        <v>0.0001961000000001434</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>1.043159078206592</v>
       </c>
       <c r="F51" t="n">
-        <v>8.579338594888984</v>
+        <v>8.57933859488892</v>
       </c>
       <c r="G51" t="n">
-        <v>53.70270837109561</v>
+        <v>53.70270837109518</v>
       </c>
       <c r="H51" t="n">
-        <v>3.685555946211248</v>
+        <v>3.685555946211226</v>
       </c>
       <c r="I51" t="n">
         <v>31.07252442683621</v>
@@ -3095,16 +3095,16 @@
         <v>13.5120365339658</v>
       </c>
       <c r="K51" t="n">
-        <v>29.68673982896045</v>
+        <v>29.68673982896039</v>
       </c>
       <c r="L51" t="n">
-        <v>9.875914722984874</v>
+        <v>9.875914722984808</v>
       </c>
       <c r="M51" t="n">
-        <v>1.164968484119493</v>
+        <v>1.164968484119507</v>
       </c>
       <c r="N51" t="n">
-        <v>1.761996896898071</v>
+        <v>1.761996896898114</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003217000000006465</v>
+        <v>0.0001880999999990252</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>1.560352108683647</v>
       </c>
       <c r="F52" t="n">
-        <v>7.93971017389534</v>
+        <v>7.939710173894952</v>
       </c>
       <c r="G52" t="n">
-        <v>94.3747750353033</v>
+        <v>94.3747750353031</v>
       </c>
       <c r="H52" t="n">
-        <v>3.101984206539514</v>
+        <v>3.101984206539163</v>
       </c>
       <c r="I52" t="n">
         <v>47.03792036458195</v>
@@ -3147,16 +3147,16 @@
         <v>11.00547523311644</v>
       </c>
       <c r="K52" t="n">
-        <v>45.34896796387993</v>
+        <v>45.34896796387948</v>
       </c>
       <c r="L52" t="n">
-        <v>7.166410975551517</v>
+        <v>7.166410975550969</v>
       </c>
       <c r="M52" t="n">
-        <v>1.45648965929892</v>
+        <v>1.456489659299104</v>
       </c>
       <c r="N52" t="n">
-        <v>2.285541537783513</v>
+        <v>2.285541537783857</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003175999999882606</v>
+        <v>0.0002624000000004401</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.2905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>8.883304318869801</v>
+        <v>8.883304318870337</v>
       </c>
       <c r="G53" t="n">
-        <v>125.5744468101828</v>
+        <v>125.5744468101804</v>
       </c>
       <c r="H53" t="n">
-        <v>2.712554587687915</v>
+        <v>2.712554587688283</v>
       </c>
       <c r="I53" t="n">
         <v>42.84508415968962</v>
@@ -3199,16 +3199,16 @@
         <v>7.034854823508725</v>
       </c>
       <c r="K53" t="n">
-        <v>41.4558047617255</v>
+        <v>41.45580476172623</v>
       </c>
       <c r="L53" t="n">
-        <v>5.835029570828942</v>
+        <v>5.835029570829528</v>
       </c>
       <c r="M53" t="n">
-        <v>1.12312072678112</v>
+        <v>1.123120726780932</v>
       </c>
       <c r="N53" t="n">
-        <v>1.312630210841459</v>
+        <v>1.312630210840814</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002950000000225828</v>
+        <v>0.0002033000000025709</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.4805241593859</v>
       </c>
       <c r="F54" t="n">
-        <v>9.545642074622982</v>
+        <v>9.545642074622917</v>
       </c>
       <c r="G54" t="n">
-        <v>144.2394582943452</v>
+        <v>144.2394582943458</v>
       </c>
       <c r="H54" t="n">
-        <v>3.008355439340727</v>
+        <v>3.008355439340691</v>
       </c>
       <c r="I54" t="n">
         <v>39.20823517402567</v>
@@ -3251,16 +3251,16 @@
         <v>5.169813417634993</v>
       </c>
       <c r="K54" t="n">
-        <v>38.60759939799144</v>
+        <v>38.60759939799133</v>
       </c>
       <c r="L54" t="n">
-        <v>5.118094092990805</v>
+        <v>5.118094092990732</v>
       </c>
       <c r="M54" t="n">
-        <v>1.037699657338445</v>
+        <v>1.037699657338466</v>
       </c>
       <c r="N54" t="n">
-        <v>0.4950131031600138</v>
+        <v>0.4950131031600797</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002987000000018725</v>
+        <v>0.0002105000000014456</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.7941351331494</v>
       </c>
       <c r="F55" t="n">
-        <v>6.341931156636626</v>
+        <v>6.341931156651134</v>
       </c>
       <c r="G55" t="n">
-        <v>155.2576010473749</v>
+        <v>155.2576010473505</v>
       </c>
       <c r="H55" t="n">
-        <v>4.969560831507949</v>
+        <v>4.96956083152694</v>
       </c>
       <c r="I55" t="n">
         <v>114.2699214848488</v>
@@ -3303,16 +3303,16 @@
         <v>7.220398177179498</v>
       </c>
       <c r="K55" t="n">
-        <v>114.8894022179844</v>
+        <v>114.8894022179801</v>
       </c>
       <c r="L55" t="n">
-        <v>4.01667645229367</v>
+        <v>4.016676452306519</v>
       </c>
       <c r="M55" t="n">
-        <v>1.855512823766944</v>
+        <v>1.85551282375776</v>
       </c>
       <c r="N55" t="n">
-        <v>2.189493897554784</v>
+        <v>2.189493897545239</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0012465000000077</v>
+        <v>0.0001904999999986501</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>1.852210744612911</v>
       </c>
       <c r="F56" t="n">
-        <v>7.690939348498534</v>
+        <v>7.690939348498382</v>
       </c>
       <c r="G56" t="n">
-        <v>76.84921336638004</v>
+        <v>76.84921336637986</v>
       </c>
       <c r="H56" t="n">
-        <v>3.784215500341903</v>
+        <v>3.78421550034173</v>
       </c>
       <c r="I56" t="n">
         <v>45.4456541921149</v>
@@ -3355,16 +3355,16 @@
         <v>13.64739445873363</v>
       </c>
       <c r="K56" t="n">
-        <v>43.74004876492339</v>
+        <v>43.74004876492324</v>
       </c>
       <c r="L56" t="n">
-        <v>8.448235459682122</v>
+        <v>8.448235459681843</v>
       </c>
       <c r="M56" t="n">
-        <v>1.432171185722074</v>
+        <v>1.432171185722149</v>
       </c>
       <c r="N56" t="n">
-        <v>2.306151510599079</v>
+        <v>2.30615151059921</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003402000000107819</v>
+        <v>0.0001974999999987403</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>1.623731114633993</v>
       </c>
       <c r="F57" t="n">
-        <v>9.06031701585597</v>
+        <v>9.060317015856098</v>
       </c>
       <c r="G57" t="n">
-        <v>13.52123137940388</v>
+        <v>13.52123137940426</v>
       </c>
       <c r="H57" t="n">
-        <v>7.586152014771218</v>
+        <v>7.58615201477157</v>
       </c>
       <c r="I57" t="n">
         <v>14.44966940927695</v>
@@ -3407,16 +3407,16 @@
         <v>25.01968713371055</v>
       </c>
       <c r="K57" t="n">
-        <v>13.0900122494765</v>
+        <v>13.09001224947665</v>
       </c>
       <c r="L57" t="n">
-        <v>15.69932330275357</v>
+        <v>15.69932330275411</v>
       </c>
       <c r="M57" t="n">
-        <v>1.449782297892712</v>
+        <v>1.449782297892642</v>
       </c>
       <c r="N57" t="n">
-        <v>2.248045948205888</v>
+        <v>2.24804594820574</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0002412999999990006</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>1.037643175502579</v>
       </c>
       <c r="F58" t="n">
-        <v>7.150444223119611</v>
+        <v>7.150444223116574</v>
       </c>
       <c r="G58" t="n">
-        <v>189.2684928785412</v>
+        <v>189.2684928785576</v>
       </c>
       <c r="H58" t="n">
-        <v>4.285022709530153</v>
+        <v>4.285022709527357</v>
       </c>
       <c r="I58" t="n">
         <v>122.3917356254008</v>
@@ -3459,16 +3459,16 @@
         <v>1.88002910171164</v>
       </c>
       <c r="K58" t="n">
-        <v>138.9625820537195</v>
+        <v>138.9625820537508</v>
       </c>
       <c r="L58" t="n">
-        <v>0.7185465734673938</v>
+        <v>0.7185465734663745</v>
       </c>
       <c r="M58" t="n">
-        <v>6.413592890339023</v>
+        <v>6.413592890358124</v>
       </c>
       <c r="N58" t="n">
-        <v>6.445069552296505</v>
+        <v>6.445069552306633</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002924000000064098</v>
+        <v>0.0002296000000008291</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.1310521573469041</v>
       </c>
       <c r="F59" t="n">
-        <v>8.714684009854459</v>
+        <v>8.714684009854389</v>
       </c>
       <c r="G59" t="n">
-        <v>11.21132053408344</v>
+        <v>11.211320534083</v>
       </c>
       <c r="H59" t="n">
-        <v>4.691755704408389</v>
+        <v>4.69175570440813</v>
       </c>
       <c r="I59" t="n">
         <v>12.23519148406908</v>
@@ -3511,16 +3511,16 @@
         <v>14.37002887945796</v>
       </c>
       <c r="K59" t="n">
-        <v>11.12419119697537</v>
+        <v>11.12419119697521</v>
       </c>
       <c r="L59" t="n">
-        <v>11.843488765365</v>
+        <v>11.84348876536463</v>
       </c>
       <c r="M59" t="n">
-        <v>1.27283059074243</v>
+        <v>1.272830590742486</v>
       </c>
       <c r="N59" t="n">
-        <v>1.149243709978847</v>
+        <v>1.149243709979057</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003299999999910597</v>
+        <v>0.0002250999999979797</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.7601861461745285</v>
       </c>
       <c r="F60" t="n">
-        <v>7.742603570862208</v>
+        <v>7.7426035708621</v>
       </c>
       <c r="G60" t="n">
-        <v>61.87593818855746</v>
+        <v>61.87593818855787</v>
       </c>
       <c r="H60" t="n">
-        <v>5.388174607812583</v>
+        <v>5.388174607812303</v>
       </c>
       <c r="I60" t="n">
         <v>41.96631688030001</v>
@@ -3563,16 +3563,16 @@
         <v>15.51473424919647</v>
       </c>
       <c r="K60" t="n">
-        <v>40.47890043476728</v>
+        <v>40.47890043476723</v>
       </c>
       <c r="L60" t="n">
-        <v>10.74538967657146</v>
+        <v>10.74538967657105</v>
       </c>
       <c r="M60" t="n">
-        <v>1.196302594129207</v>
+        <v>1.196302594129292</v>
       </c>
       <c r="N60" t="n">
-        <v>1.879410970932303</v>
+        <v>1.879410970932434</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003016999999942982</v>
+        <v>0.0002542000000005373</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>1.669283521394728</v>
       </c>
       <c r="F61" t="n">
-        <v>7.908219243693615</v>
+        <v>7.908219243693907</v>
       </c>
       <c r="G61" t="n">
-        <v>185.1087058586133</v>
+        <v>185.1087058586121</v>
       </c>
       <c r="H61" t="n">
-        <v>3.740292951477528</v>
+        <v>3.74029295147777</v>
       </c>
       <c r="I61" t="n">
         <v>56.76408976169788</v>
@@ -3615,16 +3615,16 @@
         <v>3.059300117780022</v>
       </c>
       <c r="K61" t="n">
-        <v>50.74997797459643</v>
+        <v>50.74997797459876</v>
       </c>
       <c r="L61" t="n">
-        <v>1.292826983909896</v>
+        <v>1.292826983909951</v>
       </c>
       <c r="M61" t="n">
-        <v>2.743182040462298</v>
+        <v>2.743182040461235</v>
       </c>
       <c r="N61" t="n">
-        <v>3.524961196728007</v>
+        <v>3.524961196727241</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002877999999952863</v>
+        <v>0.0002379999999995164</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.9217709932130896</v>
       </c>
       <c r="F62" t="n">
-        <v>8.795638009574958</v>
+        <v>8.795638009575089</v>
       </c>
       <c r="G62" t="n">
-        <v>56.28089451170334</v>
+        <v>56.28089451170436</v>
       </c>
       <c r="H62" t="n">
-        <v>3.162102294713419</v>
+        <v>3.162102294713464</v>
       </c>
       <c r="I62" t="n">
         <v>29.53509225686502</v>
@@ -3667,16 +3667,16 @@
         <v>12.72106643331113</v>
       </c>
       <c r="K62" t="n">
-        <v>28.3393530200261</v>
+        <v>28.33935302002625</v>
       </c>
       <c r="L62" t="n">
-        <v>9.412651622310596</v>
+        <v>9.412651622310726</v>
       </c>
       <c r="M62" t="n">
-        <v>1.388165780017948</v>
+        <v>1.388165780017912</v>
       </c>
       <c r="N62" t="n">
-        <v>1.77781057801635</v>
+        <v>1.777810578016294</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003214999999840984</v>
+        <v>0.0001873000000003344</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.4314955515598153</v>
       </c>
       <c r="F63" t="n">
-        <v>8.561825993309025</v>
+        <v>8.56182599330784</v>
       </c>
       <c r="G63" t="n">
-        <v>154.3373095409537</v>
+        <v>154.337309540957</v>
       </c>
       <c r="H63" t="n">
-        <v>3.968839018532752</v>
+        <v>3.968839018531777</v>
       </c>
       <c r="I63" t="n">
         <v>64.68552660313826</v>
@@ -3719,16 +3719,16 @@
         <v>4.894765047516295</v>
       </c>
       <c r="K63" t="n">
-        <v>63.38411840992326</v>
+        <v>63.38411840992144</v>
       </c>
       <c r="L63" t="n">
-        <v>3.688338492653155</v>
+        <v>3.688338492652356</v>
       </c>
       <c r="M63" t="n">
-        <v>1.277913262845498</v>
+        <v>1.277913262846025</v>
       </c>
       <c r="N63" t="n">
-        <v>1.467589949177756</v>
+        <v>1.467589949179036</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002858000000003358</v>
+        <v>0.0002203999999998985</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.01232542630370722</v>
       </c>
       <c r="F64" t="n">
-        <v>9.208584277523453</v>
+        <v>9.208584277523437</v>
       </c>
       <c r="G64" t="n">
-        <v>3.487885413725021</v>
+        <v>3.487885413724894</v>
       </c>
       <c r="H64" t="n">
-        <v>6.789585030681525</v>
+        <v>6.789585030681411</v>
       </c>
       <c r="I64" t="n">
         <v>7.285415246674767</v>
@@ -3771,16 +3771,16 @@
         <v>18.11323190547886</v>
       </c>
       <c r="K64" t="n">
-        <v>6.46330847519172</v>
+        <v>6.463308475191682</v>
       </c>
       <c r="L64" t="n">
-        <v>14.81881812302123</v>
+        <v>14.81881812302108</v>
       </c>
       <c r="M64" t="n">
-        <v>1.053447635025718</v>
+        <v>1.053447635025733</v>
       </c>
       <c r="N64" t="n">
-        <v>1.159566732528466</v>
+        <v>1.159566732528523</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003050999999913984</v>
+        <v>0.0001880000000014093</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>2.138978653518098</v>
       </c>
       <c r="F65" t="n">
-        <v>6.862448866782302</v>
+        <v>6.862448866782546</v>
       </c>
       <c r="G65" t="n">
         <v>103.011201811037</v>
       </c>
       <c r="H65" t="n">
-        <v>3.406490637280349</v>
+        <v>3.406490637280627</v>
       </c>
       <c r="I65" t="n">
         <v>60.6583617383578</v>
@@ -3823,16 +3823,16 @@
         <v>11.86528034063046</v>
       </c>
       <c r="K65" t="n">
-        <v>58.45324970971901</v>
+        <v>58.45324970971927</v>
       </c>
       <c r="L65" t="n">
-        <v>6.347498529434993</v>
+        <v>6.347498529435371</v>
       </c>
       <c r="M65" t="n">
-        <v>1.738587132276035</v>
+        <v>1.738587132275866</v>
       </c>
       <c r="N65" t="n">
-        <v>2.810720316505151</v>
+        <v>2.810720316504943</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002953999999988355</v>
+        <v>0.0001855000000006157</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>358.8996770607683</v>
       </c>
       <c r="F66" t="n">
-        <v>7.331694539858199</v>
+        <v>7.331694539858746</v>
       </c>
       <c r="G66" t="n">
-        <v>61.79331074436796</v>
+        <v>61.79331074436966</v>
       </c>
       <c r="H66" t="n">
-        <v>7.176743022984974</v>
+        <v>7.176743022985667</v>
       </c>
       <c r="I66" t="n">
         <v>45.8459076388655</v>
@@ -3875,16 +3875,16 @@
         <v>16.86218162216168</v>
       </c>
       <c r="K66" t="n">
-        <v>44.45528241179591</v>
+        <v>44.45528241179637</v>
       </c>
       <c r="L66" t="n">
-        <v>12.30673899776764</v>
+        <v>12.30673899776874</v>
       </c>
       <c r="M66" t="n">
-        <v>1.905036316525628</v>
+        <v>1.905036316525325</v>
       </c>
       <c r="N66" t="n">
-        <v>1.629194219067382</v>
+        <v>1.629194219066941</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003155999999933101</v>
+        <v>0.0002430000000011034</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.8336648231326874</v>
       </c>
       <c r="F67" t="n">
-        <v>9.267767670710358</v>
+        <v>9.267767670710626</v>
       </c>
       <c r="G67" t="n">
-        <v>41.32020680641314</v>
+        <v>41.32020680641723</v>
       </c>
       <c r="H67" t="n">
-        <v>1.785267092848786</v>
+        <v>1.785267092848743</v>
       </c>
       <c r="I67" t="n">
         <v>19.57687427078943</v>
@@ -3927,16 +3927,16 @@
         <v>11.16212898988536</v>
       </c>
       <c r="K67" t="n">
-        <v>18.22663912282898</v>
+        <v>18.22663912282925</v>
       </c>
       <c r="L67" t="n">
-        <v>8.695663857876195</v>
+        <v>8.695663857876342</v>
       </c>
       <c r="M67" t="n">
-        <v>1.191227757680022</v>
+        <v>1.191227757679969</v>
       </c>
       <c r="N67" t="n">
-        <v>1.933237628259129</v>
+        <v>1.933237628259171</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003035000000011223</v>
+        <v>0.0001943999999980406</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>358.5843856359357</v>
       </c>
       <c r="F68" t="n">
-        <v>8.103212615474684</v>
+        <v>8.103212615474556</v>
       </c>
       <c r="G68" t="n">
-        <v>21.58562473791868</v>
+        <v>21.58562473791808</v>
       </c>
       <c r="H68" t="n">
-        <v>5.28746179007856</v>
+        <v>5.287461790078626</v>
       </c>
       <c r="I68" t="n">
         <v>16.96964631110587</v>
@@ -3979,16 +3979,16 @@
         <v>12.83113260813786</v>
       </c>
       <c r="K68" t="n">
-        <v>16.1863568977511</v>
+        <v>16.186356897751</v>
       </c>
       <c r="L68" t="n">
-        <v>11.85425353419578</v>
+        <v>11.85425353419574</v>
       </c>
       <c r="M68" t="n">
-        <v>1.370760554011743</v>
+        <v>1.37076055401176</v>
       </c>
       <c r="N68" t="n">
-        <v>0.8482427793946843</v>
+        <v>0.8482427793947618</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002983999999912612</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>358.8714778477798</v>
       </c>
       <c r="F69" t="n">
-        <v>5.065612330810885</v>
+        <v>5.065612330811369</v>
       </c>
       <c r="G69" t="n">
-        <v>88.05791205597343</v>
+        <v>88.05791205597571</v>
       </c>
       <c r="H69" t="n">
-        <v>5.502153409134469</v>
+        <v>5.502153409135273</v>
       </c>
       <c r="I69" t="n">
         <v>73.30159050095429</v>
@@ -4031,16 +4031,16 @@
         <v>17.71985515776622</v>
       </c>
       <c r="K69" t="n">
-        <v>70.79180667979206</v>
+        <v>70.7918066797926</v>
       </c>
       <c r="L69" t="n">
-        <v>8.121613288044774</v>
+        <v>8.121613288045767</v>
       </c>
       <c r="M69" t="n">
-        <v>3.264694868878439</v>
+        <v>3.264694868877698</v>
       </c>
       <c r="N69" t="n">
-        <v>3.251354845179342</v>
+        <v>3.251354845178913</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003174999999941974</v>
+        <v>0.0001889000000012686</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.9444763643716535</v>
       </c>
       <c r="F70" t="n">
-        <v>9.154014239824338</v>
+        <v>9.154014239824694</v>
       </c>
       <c r="G70" t="n">
-        <v>54.79970390392771</v>
+        <v>54.79970390393139</v>
       </c>
       <c r="H70" t="n">
-        <v>1.641576396411367</v>
+        <v>1.641576396411489</v>
       </c>
       <c r="I70" t="n">
         <v>22.43075918953557</v>
@@ -4083,16 +4083,16 @@
         <v>11.12306944814092</v>
       </c>
       <c r="K70" t="n">
-        <v>20.90913532822982</v>
+        <v>20.90913532823028</v>
       </c>
       <c r="L70" t="n">
-        <v>8.212755411799272</v>
+        <v>8.212755411799657</v>
       </c>
       <c r="M70" t="n">
-        <v>1.276044693530206</v>
+        <v>1.276044693530093</v>
       </c>
       <c r="N70" t="n">
-        <v>2.35352255554419</v>
+        <v>2.353522555544024</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0002709000000002959</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.0844929014519</v>
       </c>
       <c r="F71" t="n">
-        <v>6.990859772365487</v>
+        <v>6.99085977236482</v>
       </c>
       <c r="G71" t="n">
-        <v>47.54466053417288</v>
+        <v>47.54466053417097</v>
       </c>
       <c r="H71" t="n">
-        <v>8.94472600004257</v>
+        <v>8.944726000041586</v>
       </c>
       <c r="I71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="J71" t="n">
         <v>21.2511977384674</v>
       </c>
       <c r="K71" t="n">
-        <v>37.69356450547971</v>
+        <v>37.69356450547916</v>
       </c>
       <c r="L71" t="n">
-        <v>14.68357339250507</v>
+        <v>14.68357339250345</v>
       </c>
       <c r="M71" t="n">
-        <v>1.654699317743422</v>
+        <v>1.654699317743739</v>
       </c>
       <c r="N71" t="n">
-        <v>1.751057848528743</v>
+        <v>1.751057848529247</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0002083000000006052</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.1490025916981</v>
       </c>
       <c r="F72" t="n">
-        <v>8.655920172413756</v>
+        <v>8.655920172413918</v>
       </c>
       <c r="G72" t="n">
-        <v>166.8371540924648</v>
+        <v>166.8371540924647</v>
       </c>
       <c r="H72" t="n">
-        <v>11.39786361503621</v>
+        <v>11.39786361503647</v>
       </c>
       <c r="I72" t="n">
         <v>150.0337683635548</v>
@@ -4187,16 +4187,16 @@
         <v>9.651912212970135</v>
       </c>
       <c r="K72" t="n">
-        <v>150.2740537900502</v>
+        <v>150.2740537900501</v>
       </c>
       <c r="L72" t="n">
-        <v>8.382570074743752</v>
+        <v>8.382570074743912</v>
       </c>
       <c r="M72" t="n">
-        <v>1.650495562468609</v>
+        <v>1.650495562468494</v>
       </c>
       <c r="N72" t="n">
-        <v>0.6664362492578155</v>
+        <v>0.6664362492577137</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003384000000039578</v>
+        <v>0.0001846999999983723</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.4306031497297935</v>
       </c>
       <c r="F73" t="n">
-        <v>8.763484669955893</v>
+        <v>8.763484669955961</v>
       </c>
       <c r="G73" t="n">
-        <v>31.3308795804706</v>
+        <v>31.33087958047092</v>
       </c>
       <c r="H73" t="n">
-        <v>5.255336618223794</v>
+        <v>5.255336618223819</v>
       </c>
       <c r="I73" t="n">
         <v>22.46395608561936</v>
@@ -4239,16 +4239,16 @@
         <v>16.27104575612665</v>
       </c>
       <c r="K73" t="n">
-        <v>21.38070492969867</v>
+        <v>21.38070492969873</v>
       </c>
       <c r="L73" t="n">
-        <v>12.38609886584648</v>
+        <v>12.38609886584657</v>
       </c>
       <c r="M73" t="n">
-        <v>1.196126086712804</v>
+        <v>1.196126086712788</v>
       </c>
       <c r="N73" t="n">
-        <v>1.500710059547752</v>
+        <v>1.500710059547712</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.000321099999979424</v>
+        <v>0.0001862999999993065</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.6814545009342</v>
       </c>
       <c r="F74" t="n">
-        <v>8.074669343965347</v>
+        <v>8.074669343965288</v>
       </c>
       <c r="G74" t="n">
-        <v>16.09487137910769</v>
+        <v>16.09487137910756</v>
       </c>
       <c r="H74" t="n">
-        <v>8.903740002634882</v>
+        <v>8.903740002634686</v>
       </c>
       <c r="I74" t="n">
         <v>15.57133329969279</v>
@@ -4291,16 +4291,16 @@
         <v>20.85419847183129</v>
       </c>
       <c r="K74" t="n">
-        <v>14.57216541965261</v>
+        <v>14.57216541965255</v>
       </c>
       <c r="L74" t="n">
-        <v>16.24650612092454</v>
+        <v>16.24650612092425</v>
       </c>
       <c r="M74" t="n">
-        <v>1.301352268351407</v>
+        <v>1.301352268351447</v>
       </c>
       <c r="N74" t="n">
-        <v>1.210693593921507</v>
+        <v>1.210693593921598</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003154999999992469</v>
+        <v>0.0001894999999976221</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.42318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>6.969510750315399</v>
+        <v>6.96951075031503</v>
       </c>
       <c r="G75" t="n">
-        <v>112.2295548038775</v>
+        <v>112.2295548038769</v>
       </c>
       <c r="H75" t="n">
-        <v>5.679861252675978</v>
+        <v>5.679861252675495</v>
       </c>
       <c r="I75" t="n">
         <v>77.81913838663891</v>
@@ -4343,16 +4343,16 @@
         <v>11.66724248977646</v>
       </c>
       <c r="K75" t="n">
-        <v>76.5338797083954</v>
+        <v>76.53387970839513</v>
       </c>
       <c r="L75" t="n">
-        <v>7.619005069292396</v>
+        <v>7.619005069291884</v>
       </c>
       <c r="M75" t="n">
-        <v>1.653636676171004</v>
+        <v>1.653636676171201</v>
       </c>
       <c r="N75" t="n">
-        <v>1.985498492607793</v>
+        <v>1.98549849260808</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0008952999999962685</v>
+        <v>0.0002399999999980196</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.3916545061923</v>
       </c>
       <c r="F76" t="n">
-        <v>7.673864457178414</v>
+        <v>7.673864457178369</v>
       </c>
       <c r="G76" t="n">
-        <v>32.63198066182529</v>
+        <v>32.63198066182518</v>
       </c>
       <c r="H76" t="n">
-        <v>9.338859423644195</v>
+        <v>9.338859423644125</v>
       </c>
       <c r="I76" t="n">
         <v>27.32317301036183</v>
@@ -4395,16 +4395,16 @@
         <v>21.80818795837916</v>
       </c>
       <c r="K76" t="n">
-        <v>26.19920404852715</v>
+        <v>26.19920404852713</v>
       </c>
       <c r="L76" t="n">
-        <v>16.15437946298436</v>
+        <v>16.15437946298423</v>
       </c>
       <c r="M76" t="n">
-        <v>1.314393223725675</v>
+        <v>1.314393223725693</v>
       </c>
       <c r="N76" t="n">
-        <v>1.426564473357856</v>
+        <v>1.426564473357882</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003276999999854979</v>
+        <v>0.0001947000000015464</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.7095021339760793</v>
       </c>
       <c r="F77" t="n">
-        <v>8.83572665420265</v>
+        <v>8.835726654202929</v>
       </c>
       <c r="G77" t="n">
-        <v>112.5417814234905</v>
+        <v>112.5417814234915</v>
       </c>
       <c r="H77" t="n">
-        <v>2.639055917613107</v>
+        <v>2.639055917613284</v>
       </c>
       <c r="I77" t="n">
         <v>41.23088095385175</v>
@@ -4447,16 +4447,16 @@
         <v>8.517806771190989</v>
       </c>
       <c r="K77" t="n">
-        <v>40.036179459758</v>
+        <v>40.03617945975839</v>
       </c>
       <c r="L77" t="n">
-        <v>6.536565974987341</v>
+        <v>6.536565974987564</v>
       </c>
       <c r="M77" t="n">
-        <v>1.21649200533948</v>
+        <v>1.216492005339392</v>
       </c>
       <c r="N77" t="n">
-        <v>1.699574482319837</v>
+        <v>1.699574482319602</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.000300699999996823</v>
+        <v>0.0002051999999999055</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.0596986892811</v>
       </c>
       <c r="F78" t="n">
-        <v>7.049744991244344</v>
+        <v>7.049744991244389</v>
       </c>
       <c r="G78" t="n">
-        <v>50.78330037472032</v>
+        <v>50.78330037472062</v>
       </c>
       <c r="H78" t="n">
-        <v>8.859820720642759</v>
+        <v>8.859820720642711</v>
       </c>
       <c r="I78" t="n">
         <v>41.02759868558736</v>
@@ -4499,16 +4499,16 @@
         <v>21.21280471567252</v>
       </c>
       <c r="K78" t="n">
-        <v>39.79491752805843</v>
+        <v>39.79491752805849</v>
       </c>
       <c r="L78" t="n">
-        <v>14.51756963854495</v>
+        <v>14.51756963854492</v>
       </c>
       <c r="M78" t="n">
-        <v>1.650062442060705</v>
+        <v>1.650062442060731</v>
       </c>
       <c r="N78" t="n">
-        <v>1.736681798950212</v>
+        <v>1.736681798950201</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003140000000030341</v>
+        <v>0.0001946000000003778</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.7755551479245</v>
       </c>
       <c r="F79" t="n">
-        <v>8.368200914246414</v>
+        <v>8.368200914243499</v>
       </c>
       <c r="G79" t="n">
-        <v>166.4288481660354</v>
+        <v>166.4288481660383</v>
       </c>
       <c r="H79" t="n">
-        <v>8.496493075562272</v>
+        <v>8.496493075558275</v>
       </c>
       <c r="I79" t="n">
         <v>138.9401716507728</v>
@@ -4551,16 +4551,16 @@
         <v>6.69919649565565</v>
       </c>
       <c r="K79" t="n">
-        <v>139.6778625793508</v>
+        <v>139.6778625793528</v>
       </c>
       <c r="L79" t="n">
-        <v>5.455460766446411</v>
+        <v>5.455460766444117</v>
       </c>
       <c r="M79" t="n">
-        <v>1.228045976792749</v>
+        <v>1.228045976793725</v>
       </c>
       <c r="N79" t="n">
-        <v>1.034592357314394</v>
+        <v>1.034592357316476</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003374000000064825</v>
+        <v>0.000182799999997485</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.8779538627754</v>
       </c>
       <c r="F80" t="n">
-        <v>8.832078959100739</v>
+        <v>8.832078959100814</v>
       </c>
       <c r="G80" t="n">
-        <v>6.182914113332749</v>
+        <v>6.18291411333294</v>
       </c>
       <c r="H80" t="n">
-        <v>7.899700604281213</v>
+        <v>7.899700604281326</v>
       </c>
       <c r="I80" t="n">
         <v>8.792537788842502</v>
@@ -4603,16 +4603,16 @@
         <v>20.88161751407274</v>
       </c>
       <c r="K80" t="n">
-        <v>7.908514984592601</v>
+        <v>7.908514984592665</v>
       </c>
       <c r="L80" t="n">
-        <v>15.79037715754309</v>
+        <v>15.79037715754329</v>
       </c>
       <c r="M80" t="n">
-        <v>1.285560037040829</v>
+        <v>1.2855600370408</v>
       </c>
       <c r="N80" t="n">
-        <v>1.421790188184221</v>
+        <v>1.42179018818416</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.000309100000009721</v>
+        <v>0.0003196999999985906</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>3.316358820770084</v>
       </c>
       <c r="F81" t="n">
-        <v>6.166350586597364</v>
+        <v>6.166350586597615</v>
       </c>
       <c r="G81" t="n">
-        <v>90.83383369494928</v>
+        <v>90.83383369495046</v>
       </c>
       <c r="H81" t="n">
-        <v>2.761805939298125</v>
+        <v>2.761805939298385</v>
       </c>
       <c r="I81" t="n">
         <v>57.39789300421757</v>
@@ -4655,16 +4655,16 @@
         <v>13.66352932901044</v>
       </c>
       <c r="K81" t="n">
-        <v>54.19999146831487</v>
+        <v>54.19999146831531</v>
       </c>
       <c r="L81" t="n">
-        <v>5.968689964319044</v>
+        <v>5.968689964319411</v>
       </c>
       <c r="M81" t="n">
-        <v>2.610709596315747</v>
+        <v>2.610709596315488</v>
       </c>
       <c r="N81" t="n">
-        <v>3.45464075590308</v>
+        <v>3.454640755902874</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.000314800000012383</v>
+        <v>0.0001910999999985563</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>358.1001470638519</v>
       </c>
       <c r="F82" t="n">
-        <v>6.17128903302322</v>
+        <v>6.171289033021255</v>
       </c>
       <c r="G82" t="n">
-        <v>85.92968725026614</v>
+        <v>85.92968725025983</v>
       </c>
       <c r="H82" t="n">
-        <v>6.423723307965107</v>
+        <v>6.423723307962132</v>
       </c>
       <c r="I82" t="n">
         <v>66.48783954982605</v>
@@ -4707,16 +4707,16 @@
         <v>16.15039452812126</v>
       </c>
       <c r="K82" t="n">
-        <v>64.65921042991012</v>
+        <v>64.65921042990843</v>
       </c>
       <c r="L82" t="n">
-        <v>9.57633832965022</v>
+        <v>9.57633832964642</v>
       </c>
       <c r="M82" t="n">
-        <v>2.850793854474273</v>
+        <v>2.850793854476293</v>
       </c>
       <c r="N82" t="n">
-        <v>2.426364348862793</v>
+        <v>2.426364348864415</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003111000000046715</v>
+        <v>0.0001858000000005688</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>1.359900342218693</v>
       </c>
       <c r="F83" t="n">
-        <v>8.369914465904747</v>
+        <v>8.36991446590414</v>
       </c>
       <c r="G83" t="n">
-        <v>65.44421839207767</v>
+        <v>65.44421839207463</v>
       </c>
       <c r="H83" t="n">
-        <v>4.210700224625805</v>
+        <v>4.210700224625409</v>
       </c>
       <c r="I83" t="n">
         <v>38.4159118793041</v>
@@ -4759,16 +4759,16 @@
         <v>14.1881020213233</v>
       </c>
       <c r="K83" t="n">
-        <v>37.22624281194968</v>
+        <v>37.22624281194908</v>
       </c>
       <c r="L83" t="n">
-        <v>9.85999362683051</v>
+        <v>9.859993626829725</v>
       </c>
       <c r="M83" t="n">
-        <v>1.349630198405205</v>
+        <v>1.349630198405386</v>
       </c>
       <c r="N83" t="n">
-        <v>1.857863599844728</v>
+        <v>1.857863599845033</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.0002001000000007025</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.1593495972439</v>
       </c>
       <c r="F84" t="n">
-        <v>7.413694321103192</v>
+        <v>7.413694321102998</v>
       </c>
       <c r="G84" t="n">
-        <v>44.03268290792365</v>
+        <v>44.03268290792344</v>
       </c>
       <c r="H84" t="n">
-        <v>8.018688258166652</v>
+        <v>8.018688258166152</v>
       </c>
       <c r="I84" t="n">
         <v>34.81590641774923</v>
@@ -4811,16 +4811,16 @@
         <v>19.11454519061216</v>
       </c>
       <c r="K84" t="n">
-        <v>33.4872847145663</v>
+        <v>33.48728471456616</v>
       </c>
       <c r="L84" t="n">
-        <v>14.04604001048925</v>
+        <v>14.04604001048851</v>
       </c>
       <c r="M84" t="n">
-        <v>1.622766290501699</v>
+        <v>1.622766290501879</v>
       </c>
       <c r="N84" t="n">
-        <v>1.533137737778766</v>
+        <v>1.533137737778988</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003236000000015338</v>
+        <v>0.000202600000001496</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>7.403765092351119</v>
+        <v>7.403765092351075</v>
       </c>
       <c r="G85" t="n">
-        <v>41.15950650301403</v>
+        <v>41.15950650301389</v>
       </c>
       <c r="H85" t="n">
-        <v>8.357606489058083</v>
+        <v>8.357606489058037</v>
       </c>
       <c r="I85" t="n">
         <v>33.13287081288786</v>
@@ -4863,16 +4863,16 @@
         <v>19.91760304290331</v>
       </c>
       <c r="K85" t="n">
-        <v>31.84021156474042</v>
+        <v>31.84021156474039</v>
       </c>
       <c r="L85" t="n">
-        <v>14.52265147211487</v>
+        <v>14.52265147211478</v>
       </c>
       <c r="M85" t="n">
-        <v>1.51692311637858</v>
+        <v>1.516923116378596</v>
       </c>
       <c r="N85" t="n">
-        <v>1.537677574981299</v>
+        <v>1.537677574981327</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003044000000045344</v>
+        <v>0.0002433000000010566</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.1316122019755955</v>
       </c>
       <c r="F86" t="n">
-        <v>8.692761490802695</v>
+        <v>8.692761490802717</v>
       </c>
       <c r="G86" t="n">
-        <v>4.437007171112533</v>
+        <v>4.437007171112621</v>
       </c>
       <c r="H86" t="n">
-        <v>6.149957805668573</v>
+        <v>6.149957805668595</v>
       </c>
       <c r="I86" t="n">
         <v>8.615529210004841</v>
@@ -4915,16 +4915,16 @@
         <v>16.40699998673912</v>
       </c>
       <c r="K86" t="n">
-        <v>7.46943656745149</v>
+        <v>7.469436567451516</v>
       </c>
       <c r="L86" t="n">
-        <v>13.54918132509455</v>
+        <v>13.5491813250946</v>
       </c>
       <c r="M86" t="n">
-        <v>1.328520242344022</v>
+        <v>1.328520242344015</v>
       </c>
       <c r="N86" t="n">
-        <v>1.107376535035608</v>
+        <v>1.107376535035587</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.0001965000000012651</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.8231492789211</v>
       </c>
       <c r="F87" t="n">
-        <v>6.994194395437709</v>
+        <v>6.994194395435472</v>
       </c>
       <c r="G87" t="n">
-        <v>108.2125777319792</v>
+        <v>108.2125777319752</v>
       </c>
       <c r="H87" t="n">
-        <v>5.374414105719699</v>
+        <v>5.374414105716883</v>
       </c>
       <c r="I87" t="n">
         <v>73.53144854422638</v>
@@ -4967,16 +4967,16 @@
         <v>11.81175051977503</v>
       </c>
       <c r="K87" t="n">
-        <v>72.01212621458301</v>
+        <v>72.01212621458124</v>
       </c>
       <c r="L87" t="n">
-        <v>7.648940942842272</v>
+        <v>7.648940942839134</v>
       </c>
       <c r="M87" t="n">
-        <v>1.608603811082029</v>
+        <v>1.608603811083177</v>
       </c>
       <c r="N87" t="n">
-        <v>2.07829909727204</v>
+        <v>2.078299097273797</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.000307500000019445</v>
+        <v>0.0001986000000009369</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.596285718967305</v>
       </c>
       <c r="F88" t="n">
-        <v>8.987615200567772</v>
+        <v>8.987615200567987</v>
       </c>
       <c r="G88" t="n">
-        <v>35.82411739844431</v>
+        <v>35.82411739844446</v>
       </c>
       <c r="H88" t="n">
-        <v>3.45050817581735</v>
+        <v>3.450508175817707</v>
       </c>
       <c r="I88" t="n">
         <v>21.84848718910419</v>
@@ -5019,16 +5019,16 @@
         <v>13.65786460130007</v>
       </c>
       <c r="K88" t="n">
-        <v>20.75955990535412</v>
+        <v>20.75955990535437</v>
       </c>
       <c r="L88" t="n">
-        <v>10.40347964985499</v>
+        <v>10.4034796498556</v>
       </c>
       <c r="M88" t="n">
-        <v>1.212227366318544</v>
+        <v>1.212227366318439</v>
       </c>
       <c r="N88" t="n">
-        <v>1.612823788474432</v>
+        <v>1.612823788474127</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003397000000120443</v>
+        <v>0.0001880999999990252</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.6276244791469</v>
       </c>
       <c r="F89" t="n">
-        <v>3.606053191840916</v>
+        <v>3.606053191841552</v>
       </c>
       <c r="G89" t="n">
-        <v>106.5944325849309</v>
+        <v>106.5944325849362</v>
       </c>
       <c r="H89" t="n">
-        <v>3.060570839560187</v>
+        <v>3.060570839561299</v>
       </c>
       <c r="I89" t="n">
         <v>92.7668218217183</v>
@@ -5071,16 +5071,16 @@
         <v>16.49115940110462</v>
       </c>
       <c r="K89" t="n">
-        <v>90.72785376354787</v>
+        <v>90.72785376354862</v>
       </c>
       <c r="L89" t="n">
-        <v>4.667113407352607</v>
+        <v>4.667113407353785</v>
       </c>
       <c r="M89" t="n">
-        <v>5.070962146666065</v>
+        <v>5.070962146663622</v>
       </c>
       <c r="N89" t="n">
-        <v>3.963870733753073</v>
+        <v>3.963870733752437</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003005000000086966</v>
+        <v>0.0002783999999991238</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.8931156958482</v>
       </c>
       <c r="F90" t="n">
-        <v>6.937356615349121</v>
+        <v>6.937356615350941</v>
       </c>
       <c r="G90" t="n">
-        <v>114.0149900615382</v>
+        <v>114.0149900615411</v>
       </c>
       <c r="H90" t="n">
-        <v>5.219691341591017</v>
+        <v>5.21969134159329</v>
       </c>
       <c r="I90" t="n">
         <v>77.06502614626034</v>
@@ -5123,16 +5123,16 @@
         <v>11.20723949811577</v>
       </c>
       <c r="K90" t="n">
-        <v>75.55608111685299</v>
+        <v>75.55608111685444</v>
       </c>
       <c r="L90" t="n">
-        <v>7.103481371062115</v>
+        <v>7.103481371064505</v>
       </c>
       <c r="M90" t="n">
-        <v>1.627369776203702</v>
+        <v>1.627369776202746</v>
       </c>
       <c r="N90" t="n">
-        <v>2.114902175791982</v>
+        <v>2.114902175790559</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002866000000096847</v>
+        <v>0.0001944000000015933</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>1.693730026547098</v>
       </c>
       <c r="F91" t="n">
-        <v>7.843730571712447</v>
+        <v>7.843730571712166</v>
       </c>
       <c r="G91" t="n">
-        <v>95.62526870961338</v>
+        <v>95.62526870961287</v>
       </c>
       <c r="H91" t="n">
-        <v>3.182186874584141</v>
+        <v>3.182186874583901</v>
       </c>
       <c r="I91" t="n">
         <v>48.84601329812367</v>
@@ -5175,16 +5175,16 @@
         <v>11.23051578470421</v>
       </c>
       <c r="K91" t="n">
-        <v>47.01060683726046</v>
+        <v>47.01060683726013</v>
       </c>
       <c r="L91" t="n">
-        <v>7.112327589065401</v>
+        <v>7.11232758906504</v>
       </c>
       <c r="M91" t="n">
-        <v>1.50417321220218</v>
+        <v>1.504173212202308</v>
       </c>
       <c r="N91" t="n">
-        <v>2.40166760369391</v>
+        <v>2.401667603694135</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.000311500000009346</v>
+        <v>0.0001886000000013155</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.2244866681993254</v>
       </c>
       <c r="F92" t="n">
-        <v>8.803238237139213</v>
+        <v>8.803238237139379</v>
       </c>
       <c r="G92" t="n">
-        <v>23.04606682020298</v>
+        <v>23.04606682020375</v>
       </c>
       <c r="H92" t="n">
-        <v>3.585082395699767</v>
+        <v>3.585082395699914</v>
       </c>
       <c r="I92" t="n">
         <v>17.15395993153109</v>
@@ -5227,16 +5227,16 @@
         <v>13.17470023696191</v>
       </c>
       <c r="K92" t="n">
-        <v>15.89506120921074</v>
+        <v>15.89506120921092</v>
       </c>
       <c r="L92" t="n">
-        <v>10.54889616141395</v>
+        <v>10.54889616141428</v>
       </c>
       <c r="M92" t="n">
-        <v>1.252872405853846</v>
+        <v>1.252872405853784</v>
       </c>
       <c r="N92" t="n">
-        <v>1.427464971090717</v>
+        <v>1.427464971090538</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003156000000217318</v>
+        <v>0.0002219000000032167</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.6061210177347658</v>
       </c>
       <c r="F93" t="n">
-        <v>8.726944735914309</v>
+        <v>8.726944735914049</v>
       </c>
       <c r="G93" t="n">
-        <v>34.21499574115736</v>
+        <v>34.21499574115629</v>
       </c>
       <c r="H93" t="n">
-        <v>4.595424047302822</v>
+        <v>4.59542404730265</v>
       </c>
       <c r="I93" t="n">
         <v>23.34892049549794</v>
@@ -5279,16 +5279,16 @@
         <v>15.37253312835461</v>
       </c>
       <c r="K93" t="n">
-        <v>22.24206898718153</v>
+        <v>22.2420689871813</v>
       </c>
       <c r="L93" t="n">
-        <v>11.52798988924988</v>
+        <v>11.52798988924946</v>
       </c>
       <c r="M93" t="n">
-        <v>1.147760762899754</v>
+        <v>1.147760762899823</v>
       </c>
       <c r="N93" t="n">
-        <v>1.589226082284993</v>
+        <v>1.589226082285183</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003096000000084587</v>
+        <v>0.000189800000001128</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.7697007582177</v>
       </c>
       <c r="F94" t="n">
-        <v>8.460232682683495</v>
+        <v>8.460232682687904</v>
       </c>
       <c r="G94" t="n">
-        <v>160.0797100062503</v>
+        <v>160.0797100062476</v>
       </c>
       <c r="H94" t="n">
-        <v>10.10239424886359</v>
+        <v>10.10239424887041</v>
       </c>
       <c r="I94" t="n">
         <v>135.8914103371119</v>
@@ -5331,16 +5331,16 @@
         <v>9.221215218233809</v>
       </c>
       <c r="K94" t="n">
-        <v>136.5186233938838</v>
+        <v>136.5186233938818</v>
       </c>
       <c r="L94" t="n">
-        <v>7.654002938674221</v>
+        <v>7.654002938678747</v>
       </c>
       <c r="M94" t="n">
-        <v>1.16779383494041</v>
+        <v>1.167793834938892</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9291151628343004</v>
+        <v>0.9291151628315262</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002945999999894866</v>
+        <v>0.0002364999999997508</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>358.3698019196562</v>
       </c>
       <c r="F95" t="n">
-        <v>5.876109056075607</v>
+        <v>5.876109056075453</v>
       </c>
       <c r="G95" t="n">
-        <v>101.330673256765</v>
+        <v>101.3306732567645</v>
       </c>
       <c r="H95" t="n">
-        <v>5.445882616619381</v>
+        <v>5.445882616619151</v>
       </c>
       <c r="I95" t="n">
         <v>77.08991880558148</v>
@@ -5383,16 +5383,16 @@
         <v>13.86645042167153</v>
       </c>
       <c r="K95" t="n">
-        <v>75.08909949220376</v>
+        <v>75.08909949220362</v>
       </c>
       <c r="L95" t="n">
-        <v>7.669220676524823</v>
+        <v>7.669220676524562</v>
       </c>
       <c r="M95" t="n">
-        <v>2.843428103423562</v>
+        <v>2.843428103423739</v>
       </c>
       <c r="N95" t="n">
-        <v>2.690216793465924</v>
+        <v>2.690216793466056</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003275999999914347</v>
+        <v>0.0001940000000004716</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.2565467844867</v>
       </c>
       <c r="F96" t="n">
-        <v>5.518016791804945</v>
+        <v>5.518016791793552</v>
       </c>
       <c r="G96" t="n">
-        <v>125.9955871719279</v>
+        <v>125.9955871719137</v>
       </c>
       <c r="H96" t="n">
-        <v>4.216518332423626</v>
+        <v>4.216518332407616</v>
       </c>
       <c r="I96" t="n">
         <v>92.4963307677606</v>
@@ -5435,16 +5435,16 @@
         <v>10.70698393477249</v>
       </c>
       <c r="K96" t="n">
-        <v>90.80085005283996</v>
+        <v>90.80085005283208</v>
       </c>
       <c r="L96" t="n">
-        <v>5.193074311506116</v>
+        <v>5.19307431149145</v>
       </c>
       <c r="M96" t="n">
-        <v>2.6705515288048</v>
+        <v>2.670551528818039</v>
       </c>
       <c r="N96" t="n">
-        <v>2.844766173706914</v>
+        <v>2.84476617371542</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0004411000000175136</v>
+        <v>0.0001847999999995409</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.6642888995524697</v>
       </c>
       <c r="F97" t="n">
-        <v>8.992687121461412</v>
+        <v>8.992687121461637</v>
       </c>
       <c r="G97" t="n">
-        <v>40.33243138873168</v>
+        <v>40.33243138873368</v>
       </c>
       <c r="H97" t="n">
-        <v>3.490148740410369</v>
+        <v>3.490148740410318</v>
       </c>
       <c r="I97" t="n">
         <v>23.74542453059524</v>
@@ -5487,16 +5487,16 @@
         <v>13.28409758323217</v>
       </c>
       <c r="K97" t="n">
-        <v>22.61255796053805</v>
+        <v>22.61255796053826</v>
       </c>
       <c r="L97" t="n">
-        <v>10.36519160441371</v>
+        <v>10.36519160441382</v>
       </c>
       <c r="M97" t="n">
-        <v>1.132481712765425</v>
+        <v>1.132481712765395</v>
       </c>
       <c r="N97" t="n">
-        <v>1.520784564610696</v>
+        <v>1.520784564610606</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003169999999954598</v>
+        <v>0.00020730000000313</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>7.412846708596915</v>
+        <v>7.412846708596507</v>
       </c>
       <c r="G98" t="n">
-        <v>34.69840386100772</v>
+        <v>34.69840386100672</v>
       </c>
       <c r="H98" t="n">
-        <v>9.396703651288492</v>
+        <v>9.396703651287858</v>
       </c>
       <c r="I98" t="n">
         <v>29.58813609103335</v>
@@ -5539,16 +5539,16 @@
         <v>23.48744640074011</v>
       </c>
       <c r="K98" t="n">
-        <v>28.31887482398347</v>
+        <v>28.31887482398317</v>
       </c>
       <c r="L98" t="n">
-        <v>15.97961220581206</v>
+        <v>15.97961220581096</v>
       </c>
       <c r="M98" t="n">
-        <v>1.449226536625113</v>
+        <v>1.449226536625302</v>
       </c>
       <c r="N98" t="n">
-        <v>1.760350666505768</v>
+        <v>1.760350666506063</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0008498999999915213</v>
+        <v>0.0001923999999995374</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>1.751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>6.460223390111961</v>
+        <v>6.460223390109462</v>
       </c>
       <c r="G99" t="n">
-        <v>153.7856397934788</v>
+        <v>153.7856397934806</v>
       </c>
       <c r="H99" t="n">
-        <v>8.111059937304054</v>
+        <v>8.111059937299721</v>
       </c>
       <c r="I99" t="n">
         <v>129.036147186146</v>
@@ -5591,16 +5591,16 @@
         <v>12.59476915243944</v>
       </c>
       <c r="K99" t="n">
-        <v>130.7965569699588</v>
+        <v>130.7965569699602</v>
       </c>
       <c r="L99" t="n">
-        <v>7.486264117806295</v>
+        <v>7.486264117802963</v>
       </c>
       <c r="M99" t="n">
-        <v>2.832678237779644</v>
+        <v>2.832678237782221</v>
       </c>
       <c r="N99" t="n">
-        <v>2.309686046460089</v>
+        <v>2.309686046461685</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003313999999932093</v>
+        <v>0.0002276999999999418</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.5262829187342</v>
       </c>
       <c r="F100" t="n">
-        <v>5.60887248457981</v>
+        <v>5.608872484582846</v>
       </c>
       <c r="G100" t="n">
-        <v>129.8705644754327</v>
+        <v>129.8705644754349</v>
       </c>
       <c r="H100" t="n">
-        <v>4.006304815620513</v>
+        <v>4.006304815624613</v>
       </c>
       <c r="I100" t="n">
         <v>92.65513206400841</v>
@@ -5643,16 +5643,16 @@
         <v>9.952434050938109</v>
       </c>
       <c r="K100" t="n">
-        <v>91.06629206425487</v>
+        <v>91.06629206425711</v>
       </c>
       <c r="L100" t="n">
-        <v>4.814695449948592</v>
+        <v>4.814695449952231</v>
       </c>
       <c r="M100" t="n">
-        <v>2.621973273942113</v>
+        <v>2.621973273938731</v>
       </c>
       <c r="N100" t="n">
-        <v>2.784667501383326</v>
+        <v>2.784667501381062</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002972000000056596</v>
+        <v>0.0001933000000029494</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.1423588427019467</v>
       </c>
       <c r="F101" t="n">
-        <v>6.853588697337948</v>
+        <v>6.853588697338762</v>
       </c>
       <c r="G101" t="n">
-        <v>119.9046751845511</v>
+        <v>119.9046751845518</v>
       </c>
       <c r="H101" t="n">
-        <v>4.875383805335568</v>
+        <v>4.875383805336574</v>
       </c>
       <c r="I101" t="n">
         <v>79.48494662297404</v>
@@ -5695,16 +5695,16 @@
         <v>10.4553174329922</v>
       </c>
       <c r="K101" t="n">
-        <v>78.08744664060403</v>
+        <v>78.08744664060463</v>
       </c>
       <c r="L101" t="n">
-        <v>6.396751873634639</v>
+        <v>6.396751873635655</v>
       </c>
       <c r="M101" t="n">
-        <v>1.463731661860183</v>
+        <v>1.463731661859784</v>
       </c>
       <c r="N101" t="n">
-        <v>2.147833762500515</v>
+        <v>2.147833762499908</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.000340999999991709</v>
+        <v>0.0002119000000000426</v>
       </c>
     </row>
   </sheetData>
